--- a/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/BangCongTmp.xlsx
+++ b/ASP.NET CORE/HRMNS/HRMS/wwwroot/templates/BangCongTmp.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="149">
   <si>
     <t>PD: Probation Day shift/Thử việc ca ngày</t>
   </si>
@@ -829,6 +829,12 @@
   </si>
   <si>
     <t>SUM_OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trong các cell có công thức nếu có chứa số thập phân cần chuyển qua dạng &amp;</t>
+  </si>
+  <si>
+    <t>VI DU: COUNTIF(H27:AL27,"&gt;=1.5") =&gt; COUNTIF(H27:AL27,"&gt;="&amp;1.5)</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1073,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1124,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1404,19 +1417,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1431,7 +1431,7 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1745,6 +1745,54 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1763,29 +1811,77 @@
     <xf numFmtId="165" fontId="10" fillId="6" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1802,24 +1898,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1832,87 +1910,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma 10 2" xfId="2"/>
@@ -2427,10 +2426,10 @@
   <dimension ref="A1:CQ587"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="AT17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="16" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="BI4" sqref="BI4"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3479,41 +3478,41 @@
       <c r="BT12" s="7"/>
     </row>
     <row r="13" spans="1:95" s="62" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="21"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123" t="s">
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="123"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="122"/>
-      <c r="AA13" s="122"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
-      <c r="AF13" s="122"/>
-      <c r="AG13" s="122"/>
-      <c r="AH13" s="122"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="154"/>
+      <c r="AF13" s="154"/>
+      <c r="AG13" s="154"/>
+      <c r="AH13" s="154"/>
       <c r="AI13" s="98"/>
       <c r="AJ13" s="98"/>
       <c r="AK13" s="98"/>
@@ -3866,10 +3865,10 @@
       <c r="E15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="125"/>
+      <c r="G15" s="157"/>
       <c r="H15" s="64">
         <f>DATE(LEFT(A1,4),MID(A1,5,2),RIGHT(A1,2))</f>
         <v>44986</v>
@@ -4025,22 +4024,22 @@
       <c r="BK15" s="25"/>
       <c r="BL15" s="25"/>
       <c r="BM15" s="25"/>
-      <c r="BN15" s="132" t="s">
+      <c r="BN15" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="BO15" s="133"/>
-      <c r="BP15" s="133"/>
-      <c r="BQ15" s="133"/>
-      <c r="BR15" s="133"/>
-      <c r="BS15" s="134"/>
-      <c r="BT15" s="132" t="s">
+      <c r="BO15" s="159"/>
+      <c r="BP15" s="159"/>
+      <c r="BQ15" s="159"/>
+      <c r="BR15" s="159"/>
+      <c r="BS15" s="160"/>
+      <c r="BT15" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="BU15" s="133"/>
-      <c r="BV15" s="133"/>
-      <c r="BW15" s="133"/>
-      <c r="BX15" s="133"/>
-      <c r="BY15" s="134"/>
+      <c r="BU15" s="159"/>
+      <c r="BV15" s="159"/>
+      <c r="BW15" s="159"/>
+      <c r="BX15" s="159"/>
+      <c r="BY15" s="160"/>
       <c r="BZ15" s="27" t="s">
         <v>53</v>
       </c>
@@ -4048,20 +4047,20 @@
       <c r="CB15" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="CC15" s="135" t="s">
+      <c r="CC15" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="CD15" s="135"/>
-      <c r="CE15" s="135"/>
-      <c r="CF15" s="135"/>
-      <c r="CG15" s="135"/>
-      <c r="CH15" s="135"/>
-      <c r="CI15" s="135"/>
-      <c r="CJ15" s="135"/>
-      <c r="CK15" s="135"/>
-      <c r="CL15" s="135"/>
-      <c r="CM15" s="135"/>
-      <c r="CN15" s="135"/>
+      <c r="CD15" s="161"/>
+      <c r="CE15" s="161"/>
+      <c r="CF15" s="161"/>
+      <c r="CG15" s="161"/>
+      <c r="CH15" s="161"/>
+      <c r="CI15" s="161"/>
+      <c r="CJ15" s="161"/>
+      <c r="CK15" s="161"/>
+      <c r="CL15" s="161"/>
+      <c r="CM15" s="161"/>
+      <c r="CN15" s="161"/>
       <c r="CO15" s="84" t="s">
         <v>55</v>
       </c>
@@ -4367,15 +4366,15 @@
       <c r="CQ16" s="101"/>
     </row>
     <row r="17" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="142"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="151" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="152"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
@@ -4407,236 +4406,236 @@
       <c r="AJ17" s="71"/>
       <c r="AK17" s="71"/>
       <c r="AL17" s="71"/>
-      <c r="AM17" s="139">
+      <c r="AM17" s="113">
         <f>COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"PH/L")+COUNTIF(H17:AL17,"PM")</f>
         <v>0</v>
       </c>
-      <c r="AN17" s="139">
+      <c r="AN17" s="113">
         <f>COUNTIF(H17:AL17,"PD")+COUNTIF(H17:AL17,"PDD")+COUNTIF(H17:AL17,"P/DS")/2+COUNTIF(H17:AL17,"PMD")</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="139">
+      <c r="AO17" s="113">
         <f>COUNTIF(H17:AL17,"PN")+COUNTIF(H17:AL17,"P/NS")/2+COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"PH/F")/2+COUNTIF(H17:AL17,"PH/L")/2+COUNTIF(H17:AL17,"PM")</f>
         <v>0</v>
       </c>
-      <c r="AP17" s="139">
+      <c r="AP17" s="113">
         <f>COUNTIF(H17:AL17,"BH")+COUNTIF(H17:AL17,"AL/BL")+COUNTIF(H17:AL17,"UL/BL")+COUNTIF(H17:AL17,"BM")</f>
         <v>0</v>
       </c>
-      <c r="AQ17" s="139">
+      <c r="AQ17" s="113">
         <f>COUNTIF(H17:AL17,"DS")+COUNTIF(H17:AL17,"AL/DS")/2+COUNTIF(H17:AL17,"UL/DS")/2+COUNTIF(H17:AL17,"CT")+COUNTIF(H17:AL17,"MD")</f>
         <v>0</v>
       </c>
-      <c r="AR17" s="139">
+      <c r="AR17" s="113">
         <f>COUNTIF(H17:AL17,"NS")+COUNTIF(H17:AL17,"AL/NS")/2+COUNTIF(H17:AL17,"UL/NS")/2+COUNTIF(H17:AL17,"BH")+COUNTIF(H17:AL17,"AL/BF")/2+COUNTIF(H17:AL17,"AL/BL")/2+COUNTIF(H17:AL17,"UL/BL")/2+COUNTIF(H17:AL17,"UL/BF")/2+COUNTIF(H17:AL17,"BM")</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="139">
-        <f>COUNTIF(H17:AL17,"AL")+COUNTIF(H17:AL17,"AL/DS")/2+COUNTIF(H17:AL17,"AL/NS")/2+COUNTIF(H17:AL17,"NH")+COUNTIF(H17:AL17,"SL")+COUNTIF(H17:AL17,"NHD")+COUNTIF(H17:AL17,"B")+COUNTIF(H17:AL17,"HL")+COUNTIF(H17:AL17,"AL/BF")/2+COUNTIF(H17:AL17,"AL/BL")/2</f>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="113">
-        <f>COUNTIF(H17:AL17,"PD")+COUNTIF(H17:AL17,"PN")+COUNTIF(H17:AL17,"P/DS")/2+COUNTIF(H17:AL17,"P/NS")/2+COUNTIF(H17:AL17,"DS")+COUNTIF(H17:AL17,"NS")+COUNTIF(H17:AL17,"AL")+COUNTIF(H17:AL17,"AL/DS")+COUNTIF(H17:AL17,"AL/NS")+COUNTIF(H17:AL17,"NH")+COUNTIF(H17:AL17,"SL")+COUNTIF(H17:AL17,"UL/DS")/2+COUNTIF(H17:AL17,"UL/NS")/2+COUNTIF(H17:AL17,"CT")+COUNTIF(H17:AL17,"NHD")+COUNTIF(H17:AL17,"PDD")+COUNTIF(H17:AL17,"B")+COUNTIF(H17:AL17,"HL")+COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"BH")+COUNTIF(H17:AL17,"AL/BF")+COUNTIF(H17:AL17,"AL/BL")+COUNTIF(H17:AL17,"UL/BF")/2+COUNTIF(H17:AL17,"UL/BL")/2+COUNTIF(H17:AL17,"PH/F")/2+COUNTIF(H17:AL17,"PH/L")/2+COUNTIF(H17:AL17,"MD")+COUNTIF(H17:AL17,"PMD")+COUNTIF(H17:AL17,"PM")+COUNTIF(H17:AL17,"BM")</f>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="113">
+      <c r="AS17" s="113">
+        <f>COUNTIF(H17:AL17,"AL")+COUNTIF(H17:AL17,"AL/DS")/2+COUNTIF(H17:AL17,"AL/NS")/2+COUNTIF(H17:AL17,"NH")+COUNTIF(H17:AL17,"SL")+COUNTIF(H17:AL17,"NHD")+COUNTIF(H17:AL17,"B")+COUNTIF(H17:AL17,"HL")+COUNTIF(H17:AL17,"AL/BF")/2+COUNTIF(H17:AL17,"AL/BL")/2 + COUNTIF(H17:AL17,"AL30")</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="110">
+        <f>COUNTIF(H17:AL17,"PD")+COUNTIF(H17:AL17,"PN")+COUNTIF(H17:AL17,"P/DS")/2+COUNTIF(H17:AL17,"P/NS")/2+COUNTIF(H17:AL17,"DS")+COUNTIF(H17:AL17,"NS")+COUNTIF(H17:AL17,"AL")+COUNTIF(H17:AL17,"AL/DS")+COUNTIF(H17:AL17,"AL/NS")+COUNTIF(H17:AL17,"NH")+COUNTIF(H17:AL17,"SL")+COUNTIF(H17:AL17,"UL/DS")/2+COUNTIF(H17:AL17,"UL/NS")/2+COUNTIF(H17:AL17,"CT")+COUNTIF(H17:AL17,"NHD")+COUNTIF(H17:AL17,"PDD")+COUNTIF(H17:AL17,"B")+COUNTIF(H17:AL17,"HL")+COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"BH")+COUNTIF(H17:AL17,"AL/BF")+COUNTIF(H17:AL17,"AL/BL")+COUNTIF(H17:AL17,"UL/BF")/2+COUNTIF(H17:AL17,"UL/BL")/2+COUNTIF(H17:AL17,"PH/F")/2+COUNTIF(H17:AL17,"PH/L")/2+COUNTIF(H17:AL17,"MD")+COUNTIF(H17:AL17,"PMD")+COUNTIF(H17:AL17,"PM")+COUNTIF(H17:AL17,"BM") + COUNTIF(H17:AL17,"AL30")</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="110">
         <f>COUNTIF(H17:AL17,"P/DS")/2+COUNTIF(H17:AL17,"P/NS")/2+COUNTIF(H17:AL17,"IL")+COUNTIF(H17:AL17,"NL")+COUNTIF(H17:AL17,"UL")+COUNTIF(H17:AL17,"UL/DS")/2+COUNTIF(H17:AL17,"UL/NS")/2+COUNTIF(H17:AL17,"KT")+COUNTIF(H17:AL17,"UL/BF")/2+COUNTIF(H17:AL17,"UL/BL")/2+COUNTIF(H17:AL17,"PH/F")/2+COUNTIF(H17:AL17,"PH/L")/2+COUNTIF(H17:AL17,"NB")+COUNTIF(H17:AL17,"L160")</f>
         <v>0</v>
       </c>
-      <c r="AV17" s="148">
-        <f>COUNTIF(H17:AL17,"PN")+COUNTIF(H17:AL17,"TVD")+COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"PM")+COUNTIF(H17:AL17,"PDD")-COUNTIFS(H17:AL17,"PN",H24:AL24,"&gt;=3")-COUNTIFS(H17:AL17,"PM",H24:AL24,"&gt;=3")</f>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="148">
+      <c r="AV17" s="132">
+        <f>COUNTIF(H17:AL17,"PN")+COUNTIF(H17:AL17,"TVD")+COUNTIF(H17:AL17,"PH")+COUNTIF(H17:AL17,"PM")+COUNTIF(H17:AL17,"PDD")-COUNTIFS(H17:AL17,"PN",H24:AL24,"&gt;="&amp;3)-COUNTIFS(H17:AL17,"PM",H24:AL24,"&gt;="&amp;3)</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="132">
         <f>COUNTIF(H17:AL17,"NS")+COUNTIF(H17:AL17,"D")+COUNTIF(H17:AL17,"BH")+COUNTIF(H17:AL17,"NHD")+COUNTIF(H17:AL17,"BM")-COUNTIFS(H17:AL17,"NS",H24:AL24,"&gt;=3")-COUNTIFS(H17:AL17,"BH",H24:AL24,"&gt;=3")-COUNTIFS(H17:AL17,"BM",H24:AL24,"&gt;=3")</f>
         <v>0</v>
       </c>
-      <c r="AX17" s="113">
+      <c r="AX17" s="110">
         <f>COUNTIF(H17:AL17,"AL")+COUNTIF(H17:AL17,"AL/DS")/2+COUNTIF(H17:AL17,"AL/NS")/2+COUNTIF(H17:AL17,"AL/BF")/2+COUNTIF(H17:AL17,"AL/BL")/2</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="113">
+      <c r="AY17" s="110">
         <f>COUNTIF(H17:AL17,"AL30")</f>
         <v>0</v>
       </c>
-      <c r="AZ17" s="113">
+      <c r="AZ17" s="110">
         <f>COUNTIF(H17:AL17,"L160")</f>
         <v>0</v>
       </c>
-      <c r="BA17" s="113">
+      <c r="BA17" s="110">
         <f>COUNTIF(H17:AL17,"SL")</f>
         <v>0</v>
       </c>
-      <c r="BB17" s="113">
+      <c r="BB17" s="110">
         <f>COUNTIF(H17:AL17,"NH")</f>
         <v>0</v>
       </c>
-      <c r="BC17" s="113">
+      <c r="BC17" s="110">
         <f>COUNTIF(H17:AL17,"HL")</f>
         <v>0</v>
       </c>
-      <c r="BD17" s="113">
+      <c r="BD17" s="110">
         <f>COUNTIF(G17:AL17,"P/DS")/2+COUNTIF(G17:AL17,"P/NS")/2+COUNTIF(G17:AL17,"UL")+COUNTIF(G17:AL17,"UL/DS")/2+COUNTIF(G17:AL17,"UL/NS")/2+COUNTIF(G17:AL17,"UL/BL")/2+COUNTIF(G17:AL17,"UL/BF")/2+COUNTIF(G17:AL17,"PH/F")/2+COUNTIF(G17:AL17,"PH/L")/2</f>
         <v>0</v>
       </c>
-      <c r="BE17" s="113">
+      <c r="BE17" s="110">
         <f>COUNTIF(H17:AL17,"NB")</f>
         <v>0</v>
       </c>
-      <c r="BF17" s="113">
+      <c r="BF17" s="110">
         <f>COUNTIF(H17:AL17,"NL")</f>
         <v>0</v>
       </c>
-      <c r="BG17" s="113">
+      <c r="BG17" s="110">
         <f>COUNTIF(H17:AL17,"IL")</f>
         <v>0</v>
       </c>
-      <c r="BH17" s="113">
+      <c r="BH17" s="110">
         <f>COUNTIF(H17:AL17,"KT")</f>
         <v>0</v>
       </c>
-      <c r="BI17" s="113">
+      <c r="BI17" s="110">
         <f>COUNTIF(H17:AL17,"L70")</f>
         <v>0</v>
       </c>
-      <c r="BJ17" s="113">
+      <c r="BJ17" s="110">
         <f>COUNTIF(H17:AL17,"MD")</f>
         <v>0</v>
       </c>
-      <c r="BK17" s="113">
+      <c r="BK17" s="110">
         <f>COUNTIF(H17:AL17,"PMD")</f>
         <v>0</v>
       </c>
-      <c r="BL17" s="113">
+      <c r="BL17" s="110">
         <f>COUNTIF(H17:AL17,"PM")</f>
         <v>0</v>
       </c>
-      <c r="BM17" s="113">
+      <c r="BM17" s="110">
         <f>COUNTIF(H17:AL17,"BM")</f>
         <v>0</v>
       </c>
-      <c r="BN17" s="116">
+      <c r="BN17" s="107">
         <f>SUMIF(H17:AL17,"PD",H18:AL18)+SUMIF(H17:AL17,"PN",H18:AL18)+SUMIF(H17:AL17,"P/DS",H18:AL18)+SUMIF(H17:AL17,"PN/F",H18:AL18)+SUMIF(H17:AL17,"PN/L",H18:AL18)+SUMIF(H17:AL17,"TV",H18:AL18)+SUMIF(H17:AL17,"TVD",H18:AL18)+SUMIF(H17:AL17,"PDD",H18:AL18)</f>
         <v>0</v>
       </c>
-      <c r="BO17" s="116">
+      <c r="BO17" s="107">
         <f>SUMIF(H17:AL17,"PD",H19:AL19)+SUMIF(H17:AL17,"PN",H19:AL19)+SUMIF(H17:AL17,"P/DS",H19:AL19)+SUMIF(H17:AL17,"PN/F",H19:AL19)+SUMIF(H17:AL17,"PN/L",H19:AL19)+SUMIF(H17:AL17,"TV",H19:AL19)+SUMIF(H17:AL17,"TVD",H19:AL19)+SUMIF(H17:AL17,"PDD",H19:AL19)+SUMIF(H17:AL17,"PMD",H19:AL19)</f>
         <v>0</v>
       </c>
-      <c r="BP17" s="116">
+      <c r="BP17" s="107">
         <f>SUMIF(H17:AL17,"PD",H20:AL20)+SUMIF(H17:AL17,"PN",H20:AL20)+SUMIF(H17:AL17,"P/DS",H20:AL20)+SUMIF(H17:AL17,"PN/F",H20:AL20)+SUMIF(H17:AL17,"PN/L",H20:AL20)+SUMIF(H17:AL17,"TV",H20:AL20)+SUMIF(H17:AL17,"TVD",H20:AL20)</f>
         <v>0</v>
       </c>
-      <c r="BQ17" s="116">
+      <c r="BQ17" s="107">
         <f>SUMIF(H17:AL17,"PD",H21:AL21)+SUMIF(H17:AL17,"PN",H21:AL21)+SUMIF(H17:AL17,"P/DS",H21:AL21)+SUMIF(H17:AL17,"PN/F",H21:AL21)+SUMIF(H17:AL17,"PN/L",H21:AL21)+SUMIF(H17:AL17,"TV",H21:AL21)+SUMIF(H17:AL17,"TVD",H21:AL21)</f>
         <v>0</v>
       </c>
-      <c r="BR17" s="116">
+      <c r="BR17" s="107">
         <f>SUMIF(H17:AL17,"PD",H22:AL22)+SUMIF(H17:AL17,"PN",H22:AL22)+SUMIF(H17:AL17,"P/DS",H22:AL22)+SUMIF(H17:AL17,"PN/F",H22:AL22)+SUMIF(H17:AL17,"PN/L",H22:AL22)+SUMIF(H17:AL17,"TV",H22:AL22)+SUMIF(H17:AL17,"TVD",H22:AL22)+SUMIF(H17:AL17,"PDD",H22:AL22)+SUMIF(H17:AL17,"PH",H22:AL22)+SUMIF(H17:AL17,"PM",H22:AL22)</f>
         <v>0</v>
       </c>
-      <c r="BS17" s="116">
+      <c r="BS17" s="107">
         <f>SUMIF(H17:AL17,"PD",H23:AL23)+SUMIF(H17:AL17,"PN",H23:AL23)+SUMIF(H17:AL17,"P/DS",H23:AL23)+SUMIF(H17:AL17,"PN/F",H23:AL23)+SUMIF(H17:AL17,"PN/L",H23:AL23)+SUMIF(H17:AL17,"TV",H23:AL23)+SUMIF(H17:AL17,"TVD",H23:AL23)+SUMIF(H17:AL17,"PDD",H23:AL23)+SUMIF(H17:AL17,"PH",H23:AL23)+SUMIF(H17:AL17,"PM",H23:AL23)</f>
         <v>0</v>
       </c>
-      <c r="BT17" s="110">
+      <c r="BT17" s="126">
         <f>SUM(H18:AL18)-BN17</f>
         <v>0</v>
       </c>
-      <c r="BU17" s="110">
+      <c r="BU17" s="126">
         <f>SUM(H19:AL19)-BO17</f>
         <v>0</v>
       </c>
-      <c r="BV17" s="110">
+      <c r="BV17" s="126">
         <f>SUM(H20:AL20)-BP17</f>
         <v>0</v>
       </c>
-      <c r="BW17" s="110">
+      <c r="BW17" s="126">
         <f>SUM(H21:AL21)-BQ17</f>
         <v>0</v>
       </c>
-      <c r="BX17" s="110">
+      <c r="BX17" s="126">
         <f>SUM(H22:AL22)-BR17</f>
         <v>0</v>
       </c>
-      <c r="BY17" s="110">
+      <c r="BY17" s="126">
         <f>SUM(H23:AL23)-BS17</f>
         <v>0</v>
       </c>
-      <c r="BZ17" s="113">
+      <c r="BZ17" s="110">
         <f>SUMIF(H17:AL17,"PD",H24:AL24)+SUMIF(H17:AL17,"PN",H24:AL24)+SUMIF(H17:AL17,"P/DS",H24:AL24)+SUMIF(H17:AL17,"PN/F",H24:AL24)+SUMIF(H17:AL17,"PN/L",H24:AL24)</f>
         <v>0</v>
       </c>
-      <c r="CA17" s="113">
+      <c r="CA17" s="110">
         <f>SUM(H24:AL24)-BZ17</f>
         <v>0</v>
       </c>
-      <c r="CB17" s="113">
+      <c r="CB17" s="110">
         <f>+SUM(BN17:BY24)</f>
         <v>0</v>
       </c>
-      <c r="CC17" s="107">
+      <c r="CC17" s="123">
         <f>(COUNTIFS(H17:AL17,"PD",H18:AL18,"&gt;=2"))*0.5-IF(CP17="VP",COUNTIFS($H$16:$AL$16,"SAT",H17:AL17,"PD",H18:AL18,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CD17" s="107">
-        <f>(COUNTIFS(H17:AL17,"PN",H19:AL19,"&gt;=0.5",H18:AL18,"&gt;=1.5"))*0.5+COUNTIFS(H17:AL17,"PDD",H19:AL19,"&gt;=0.5",H18:AL18,"&gt;=1.5")*0.5</f>
+      <c r="CD17" s="123">
+        <f>(COUNTIFS(H17:AL17,"PN",H19:AL19,"&gt;="&amp;0.5,H18:AL18,"&gt;="&amp;1.5))*0.5+COUNTIFS(H17:AL17,"PDD",H19:AL19,"&gt;="&amp;0.5,H18:AL18,"&gt;="&amp;1.5)*0.5</f>
         <v>0</v>
       </c>
       <c r="CE17" s="136">
         <f>(COUNTIFS(H17:AL17,"TV",H19:AL19,"&gt;=10"))*0.5+(COUNTIFS(H17:AL17,"PMD",H19:AL19,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CF17" s="107">
-        <f>(COUNTIFS(H17:AL17,"TVD",H21:AL21,"&gt;=6.5",H19:AL19,"&gt;=3.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CG17" s="107">
+      <c r="CF17" s="123">
+        <f>(COUNTIFS(H17:AL17,"TVD",H21:AL21,"&gt;="&amp;6.5,H19:AL19,"&gt;="&amp;3.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CG17" s="123">
         <f>(COUNTIFS(H17:AL17,"PD",H22:AL22,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CH17" s="107">
-        <f>(COUNTIFS(H17:AL17,"PDD",H22:AL22,"&gt;=3.5",H23:AL23,"&gt;=6.5")+COUNTIFS(H17:AL17,"PH",H23:AL23,"&gt;=0.5",H22:AL22,"&gt;=1.5")+COUNTIFS(H17:AL17,"PM",H23:AL23,"&gt;=0.5",H22:AL22,"&gt;=1.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CI17" s="107">
+      <c r="CH17" s="123">
+        <f>(COUNTIFS(H17:AL17,"PDD",H22:AL22,"&gt;="&amp;3.5,H23:AL23,"&gt;="&amp;6.5)+COUNTIFS(H17:AL17,"PH",H23:AL23,"&gt;="&amp;0.5,H22:AL22,"&gt;="&amp;1.5)+COUNTIFS(H17:AL17,"PM",H23:AL23,"&gt;="&amp;0.5,H22:AL22,"&gt;="&amp;1.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CI17" s="123">
         <f>(COUNTIFS(H17:AL17,"DS",H18:AL18,"&gt;=2")+COUNTIFS(H17:AL17,"AL/DS",H18:AL18,"&gt;=2"))*0.5-IF(CP17="VP",COUNTIFS($H$16:$AL$16,"SAT",H17:AL17,"DS",H18:AL18,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CJ17" s="107">
-        <f>(COUNTIFS(H17:AL17,"NS",H19:AL19,"&gt;=0.5",H18:AL18,"&gt;=1.5")+COUNTIFS(H17:AL17,"AL/NS",H19:AL19,"&gt;=0.5",H18:AL18,"&gt;=1.5")+COUNTIFS(H17:AL17,"NHD",H19:AL19,"&gt;=4.5",H22:AL22,"&gt;=2",H18:AL18,"&gt;=1.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CK17" s="107">
+      <c r="CJ17" s="123">
+        <f>(COUNTIFS(H17:AL17,"NS",H19:AL19,"&gt;="&amp;0.5,H18:AL18,"&gt;="&amp;1.5)+COUNTIFS(H17:AL17,"AL/NS",H19:AL19,"&gt;="&amp;0.5,H18:AL18,"&gt;="&amp;1.5)+COUNTIFS(H17:AL17,"NHD",H19:AL19,"&gt;="&amp;4.5,H22:AL22,"&gt;="&amp;2,H18:AL18,"&gt;="&amp;1.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CK17" s="123">
         <f>(COUNTIF(H19:AL19,"&gt;=10")+COUNTIFS(H17:AL17,"MD",H19:AL19,"&gt;=2")-COUNTIFS(H17:AL17,"TV",H19:AL19,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CL17" s="107">
-        <f>(COUNTIFS(H17:AL17,"D",H21:AL21,"&gt;=6.5",H19:AL19,"&gt;=3.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CM17" s="107">
+      <c r="CL17" s="123">
+        <f>(COUNTIFS(H17:AL17,"D",H21:AL21,"&gt;="&amp;6.5,H19:AL19,"&gt;="&amp;3.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CM17" s="123">
         <f>(COUNTIF(H22:AL22,"&gt;=10")-COUNTIFS(H17:AL17,"PD",H22:AL22,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CN17" s="119">
-        <f>(COUNTIFS(H17:AL17,"NHD",H22:AL22,"&gt;=3.5",H23:AL23,"&gt;=6.5")+COUNTIFS(H17:AL17,"BH",H22:AL22,"&gt;=1.5",H23:AL23,"&gt;=0.5")+COUNTIFS(H17:AL17,"BM",H22:AL22,"&gt;=1.5",H23:AL23,"&gt;=0.5")+COUNTIFS(H17:AL17,"D",H22:AL22,"&gt;=1.5",H23:AL23,"&gt;=0.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CO17" s="120"/>
-      <c r="CP17" s="120"/>
-      <c r="CQ17" s="160">
+      <c r="CN17" s="135">
+        <f>(COUNTIFS(H17:AL17,"NHD",H22:AL22,"&gt;="&amp;3.5,H23:AL23,"&gt;="&amp;6.5)+COUNTIFS(H17:AL17,"BH",H22:AL22,"&gt;="&amp;1.5,H23:AL23,"&gt;="&amp;0.5)+COUNTIFS(H17:AL17,"BM",H22:AL22,"&gt;="&amp;1.5,H23:AL23,"&gt;="&amp;0.5)+COUNTIFS(H17:AL17,"D",H22:AL22,"&gt;="&amp;1.5,H23:AL23,"&gt;="&amp;0.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CO17" s="116"/>
+      <c r="CP17" s="116"/>
+      <c r="CQ17" s="129">
         <f>+AM17+AN17+AO17+AP17+AQ17+AR17+AS17+AU17+BI17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="143"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="156" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="120" t="s">
         <v>77</v>
       </c>
       <c r="G18" s="86">
@@ -4673,71 +4672,71 @@
       <c r="AJ18" s="68"/>
       <c r="AK18" s="68"/>
       <c r="AL18" s="68"/>
-      <c r="AM18" s="140"/>
-      <c r="AN18" s="140"/>
-      <c r="AO18" s="140"/>
-      <c r="AP18" s="140"/>
-      <c r="AQ18" s="140"/>
-      <c r="AR18" s="140"/>
-      <c r="AS18" s="140"/>
-      <c r="AT18" s="114"/>
-      <c r="AU18" s="114"/>
-      <c r="AV18" s="149"/>
-      <c r="AW18" s="149"/>
-      <c r="AX18" s="114"/>
-      <c r="AY18" s="114"/>
-      <c r="AZ18" s="114"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="114"/>
-      <c r="BC18" s="114"/>
-      <c r="BD18" s="114"/>
-      <c r="BE18" s="114"/>
-      <c r="BF18" s="114"/>
-      <c r="BG18" s="114"/>
-      <c r="BH18" s="114"/>
-      <c r="BI18" s="114"/>
-      <c r="BJ18" s="114"/>
-      <c r="BK18" s="114"/>
-      <c r="BL18" s="114"/>
-      <c r="BM18" s="114"/>
-      <c r="BN18" s="117"/>
-      <c r="BO18" s="117"/>
-      <c r="BP18" s="117"/>
-      <c r="BQ18" s="117"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="111"/>
-      <c r="BU18" s="111"/>
-      <c r="BV18" s="111"/>
-      <c r="BW18" s="111"/>
-      <c r="BX18" s="111"/>
-      <c r="BY18" s="111"/>
-      <c r="BZ18" s="114"/>
-      <c r="CA18" s="114"/>
-      <c r="CB18" s="114"/>
-      <c r="CC18" s="108"/>
-      <c r="CD18" s="108"/>
+      <c r="AM18" s="114"/>
+      <c r="AN18" s="114"/>
+      <c r="AO18" s="114"/>
+      <c r="AP18" s="114"/>
+      <c r="AQ18" s="114"/>
+      <c r="AR18" s="114"/>
+      <c r="AS18" s="114"/>
+      <c r="AT18" s="111"/>
+      <c r="AU18" s="111"/>
+      <c r="AV18" s="133"/>
+      <c r="AW18" s="133"/>
+      <c r="AX18" s="111"/>
+      <c r="AY18" s="111"/>
+      <c r="AZ18" s="111"/>
+      <c r="BA18" s="111"/>
+      <c r="BB18" s="111"/>
+      <c r="BC18" s="111"/>
+      <c r="BD18" s="111"/>
+      <c r="BE18" s="111"/>
+      <c r="BF18" s="111"/>
+      <c r="BG18" s="111"/>
+      <c r="BH18" s="111"/>
+      <c r="BI18" s="111"/>
+      <c r="BJ18" s="111"/>
+      <c r="BK18" s="111"/>
+      <c r="BL18" s="111"/>
+      <c r="BM18" s="111"/>
+      <c r="BN18" s="108"/>
+      <c r="BO18" s="108"/>
+      <c r="BP18" s="108"/>
+      <c r="BQ18" s="108"/>
+      <c r="BR18" s="108"/>
+      <c r="BS18" s="108"/>
+      <c r="BT18" s="127"/>
+      <c r="BU18" s="127"/>
+      <c r="BV18" s="127"/>
+      <c r="BW18" s="127"/>
+      <c r="BX18" s="127"/>
+      <c r="BY18" s="127"/>
+      <c r="BZ18" s="111"/>
+      <c r="CA18" s="111"/>
+      <c r="CB18" s="111"/>
+      <c r="CC18" s="124"/>
+      <c r="CD18" s="124"/>
       <c r="CE18" s="137"/>
-      <c r="CF18" s="108"/>
-      <c r="CG18" s="108"/>
-      <c r="CH18" s="108"/>
-      <c r="CI18" s="108"/>
-      <c r="CJ18" s="108"/>
-      <c r="CK18" s="108"/>
-      <c r="CL18" s="108"/>
-      <c r="CM18" s="108"/>
-      <c r="CN18" s="119"/>
-      <c r="CO18" s="120"/>
-      <c r="CP18" s="120"/>
-      <c r="CQ18" s="161"/>
+      <c r="CF18" s="124"/>
+      <c r="CG18" s="124"/>
+      <c r="CH18" s="124"/>
+      <c r="CI18" s="124"/>
+      <c r="CJ18" s="124"/>
+      <c r="CK18" s="124"/>
+      <c r="CL18" s="124"/>
+      <c r="CM18" s="124"/>
+      <c r="CN18" s="135"/>
+      <c r="CO18" s="116"/>
+      <c r="CP18" s="116"/>
+      <c r="CQ18" s="130"/>
     </row>
     <row r="19" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="143"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="157"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="87">
         <v>2</v>
       </c>
@@ -4772,71 +4771,71 @@
       <c r="AJ19" s="69"/>
       <c r="AK19" s="69"/>
       <c r="AL19" s="69"/>
-      <c r="AM19" s="140"/>
-      <c r="AN19" s="140"/>
-      <c r="AO19" s="140"/>
-      <c r="AP19" s="140"/>
-      <c r="AQ19" s="140"/>
-      <c r="AR19" s="140"/>
-      <c r="AS19" s="140"/>
-      <c r="AT19" s="114"/>
-      <c r="AU19" s="114"/>
-      <c r="AV19" s="149"/>
-      <c r="AW19" s="149"/>
-      <c r="AX19" s="114"/>
-      <c r="AY19" s="114"/>
-      <c r="AZ19" s="114"/>
-      <c r="BA19" s="114"/>
-      <c r="BB19" s="114"/>
-      <c r="BC19" s="114"/>
-      <c r="BD19" s="114"/>
-      <c r="BE19" s="114"/>
-      <c r="BF19" s="114"/>
-      <c r="BG19" s="114"/>
-      <c r="BH19" s="114"/>
-      <c r="BI19" s="114"/>
-      <c r="BJ19" s="114"/>
-      <c r="BK19" s="114"/>
-      <c r="BL19" s="114"/>
-      <c r="BM19" s="114"/>
-      <c r="BN19" s="117"/>
-      <c r="BO19" s="117"/>
-      <c r="BP19" s="117"/>
-      <c r="BQ19" s="117"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="111"/>
-      <c r="BU19" s="111"/>
-      <c r="BV19" s="111"/>
-      <c r="BW19" s="111"/>
-      <c r="BX19" s="111"/>
-      <c r="BY19" s="111"/>
-      <c r="BZ19" s="114"/>
-      <c r="CA19" s="114"/>
-      <c r="CB19" s="114"/>
-      <c r="CC19" s="108"/>
-      <c r="CD19" s="108"/>
+      <c r="AM19" s="114"/>
+      <c r="AN19" s="114"/>
+      <c r="AO19" s="114"/>
+      <c r="AP19" s="114"/>
+      <c r="AQ19" s="114"/>
+      <c r="AR19" s="114"/>
+      <c r="AS19" s="114"/>
+      <c r="AT19" s="111"/>
+      <c r="AU19" s="111"/>
+      <c r="AV19" s="133"/>
+      <c r="AW19" s="133"/>
+      <c r="AX19" s="111"/>
+      <c r="AY19" s="111"/>
+      <c r="AZ19" s="111"/>
+      <c r="BA19" s="111"/>
+      <c r="BB19" s="111"/>
+      <c r="BC19" s="111"/>
+      <c r="BD19" s="111"/>
+      <c r="BE19" s="111"/>
+      <c r="BF19" s="111"/>
+      <c r="BG19" s="111"/>
+      <c r="BH19" s="111"/>
+      <c r="BI19" s="111"/>
+      <c r="BJ19" s="111"/>
+      <c r="BK19" s="111"/>
+      <c r="BL19" s="111"/>
+      <c r="BM19" s="111"/>
+      <c r="BN19" s="108"/>
+      <c r="BO19" s="108"/>
+      <c r="BP19" s="108"/>
+      <c r="BQ19" s="108"/>
+      <c r="BR19" s="108"/>
+      <c r="BS19" s="108"/>
+      <c r="BT19" s="127"/>
+      <c r="BU19" s="127"/>
+      <c r="BV19" s="127"/>
+      <c r="BW19" s="127"/>
+      <c r="BX19" s="127"/>
+      <c r="BY19" s="127"/>
+      <c r="BZ19" s="111"/>
+      <c r="CA19" s="111"/>
+      <c r="CB19" s="111"/>
+      <c r="CC19" s="124"/>
+      <c r="CD19" s="124"/>
       <c r="CE19" s="137"/>
-      <c r="CF19" s="108"/>
-      <c r="CG19" s="108"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="108"/>
-      <c r="CJ19" s="108"/>
-      <c r="CK19" s="108"/>
-      <c r="CL19" s="108"/>
-      <c r="CM19" s="108"/>
-      <c r="CN19" s="119"/>
-      <c r="CO19" s="120"/>
-      <c r="CP19" s="120"/>
-      <c r="CQ19" s="161"/>
+      <c r="CF19" s="124"/>
+      <c r="CG19" s="124"/>
+      <c r="CH19" s="124"/>
+      <c r="CI19" s="124"/>
+      <c r="CJ19" s="124"/>
+      <c r="CK19" s="124"/>
+      <c r="CL19" s="124"/>
+      <c r="CM19" s="124"/>
+      <c r="CN19" s="135"/>
+      <c r="CO19" s="116"/>
+      <c r="CP19" s="116"/>
+      <c r="CQ19" s="130"/>
     </row>
     <row r="20" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="143"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="157"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="87">
         <v>2.1</v>
       </c>
@@ -4871,71 +4870,71 @@
       <c r="AJ20" s="69"/>
       <c r="AK20" s="69"/>
       <c r="AL20" s="69"/>
-      <c r="AM20" s="140"/>
-      <c r="AN20" s="140"/>
-      <c r="AO20" s="140"/>
-      <c r="AP20" s="140"/>
-      <c r="AQ20" s="140"/>
-      <c r="AR20" s="140"/>
-      <c r="AS20" s="140"/>
-      <c r="AT20" s="114"/>
-      <c r="AU20" s="114"/>
-      <c r="AV20" s="149"/>
-      <c r="AW20" s="149"/>
-      <c r="AX20" s="114"/>
-      <c r="AY20" s="114"/>
-      <c r="AZ20" s="114"/>
-      <c r="BA20" s="114"/>
-      <c r="BB20" s="114"/>
-      <c r="BC20" s="114"/>
-      <c r="BD20" s="114"/>
-      <c r="BE20" s="114"/>
-      <c r="BF20" s="114"/>
-      <c r="BG20" s="114"/>
-      <c r="BH20" s="114"/>
-      <c r="BI20" s="114"/>
-      <c r="BJ20" s="114"/>
-      <c r="BK20" s="114"/>
-      <c r="BL20" s="114"/>
-      <c r="BM20" s="114"/>
-      <c r="BN20" s="117"/>
-      <c r="BO20" s="117"/>
-      <c r="BP20" s="117"/>
-      <c r="BQ20" s="117"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="111"/>
-      <c r="BU20" s="111"/>
-      <c r="BV20" s="111"/>
-      <c r="BW20" s="111"/>
-      <c r="BX20" s="111"/>
-      <c r="BY20" s="111"/>
-      <c r="BZ20" s="114"/>
-      <c r="CA20" s="114"/>
-      <c r="CB20" s="114"/>
-      <c r="CC20" s="108"/>
-      <c r="CD20" s="108"/>
+      <c r="AM20" s="114"/>
+      <c r="AN20" s="114"/>
+      <c r="AO20" s="114"/>
+      <c r="AP20" s="114"/>
+      <c r="AQ20" s="114"/>
+      <c r="AR20" s="114"/>
+      <c r="AS20" s="114"/>
+      <c r="AT20" s="111"/>
+      <c r="AU20" s="111"/>
+      <c r="AV20" s="133"/>
+      <c r="AW20" s="133"/>
+      <c r="AX20" s="111"/>
+      <c r="AY20" s="111"/>
+      <c r="AZ20" s="111"/>
+      <c r="BA20" s="111"/>
+      <c r="BB20" s="111"/>
+      <c r="BC20" s="111"/>
+      <c r="BD20" s="111"/>
+      <c r="BE20" s="111"/>
+      <c r="BF20" s="111"/>
+      <c r="BG20" s="111"/>
+      <c r="BH20" s="111"/>
+      <c r="BI20" s="111"/>
+      <c r="BJ20" s="111"/>
+      <c r="BK20" s="111"/>
+      <c r="BL20" s="111"/>
+      <c r="BM20" s="111"/>
+      <c r="BN20" s="108"/>
+      <c r="BO20" s="108"/>
+      <c r="BP20" s="108"/>
+      <c r="BQ20" s="108"/>
+      <c r="BR20" s="108"/>
+      <c r="BS20" s="108"/>
+      <c r="BT20" s="127"/>
+      <c r="BU20" s="127"/>
+      <c r="BV20" s="127"/>
+      <c r="BW20" s="127"/>
+      <c r="BX20" s="127"/>
+      <c r="BY20" s="127"/>
+      <c r="BZ20" s="111"/>
+      <c r="CA20" s="111"/>
+      <c r="CB20" s="111"/>
+      <c r="CC20" s="124"/>
+      <c r="CD20" s="124"/>
       <c r="CE20" s="137"/>
-      <c r="CF20" s="108"/>
-      <c r="CG20" s="108"/>
-      <c r="CH20" s="108"/>
-      <c r="CI20" s="108"/>
-      <c r="CJ20" s="108"/>
-      <c r="CK20" s="108"/>
-      <c r="CL20" s="108"/>
-      <c r="CM20" s="108"/>
-      <c r="CN20" s="119"/>
-      <c r="CO20" s="120"/>
-      <c r="CP20" s="120"/>
-      <c r="CQ20" s="161"/>
+      <c r="CF20" s="124"/>
+      <c r="CG20" s="124"/>
+      <c r="CH20" s="124"/>
+      <c r="CI20" s="124"/>
+      <c r="CJ20" s="124"/>
+      <c r="CK20" s="124"/>
+      <c r="CL20" s="124"/>
+      <c r="CM20" s="124"/>
+      <c r="CN20" s="135"/>
+      <c r="CO20" s="116"/>
+      <c r="CP20" s="116"/>
+      <c r="CQ20" s="130"/>
     </row>
     <row r="21" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="143"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="157"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="87">
         <v>2.7</v>
       </c>
@@ -4970,71 +4969,71 @@
       <c r="AJ21" s="69"/>
       <c r="AK21" s="69"/>
       <c r="AL21" s="69"/>
-      <c r="AM21" s="140"/>
-      <c r="AN21" s="140"/>
-      <c r="AO21" s="140"/>
-      <c r="AP21" s="140"/>
-      <c r="AQ21" s="140"/>
-      <c r="AR21" s="140"/>
-      <c r="AS21" s="140"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="149"/>
-      <c r="AW21" s="149"/>
-      <c r="AX21" s="114"/>
-      <c r="AY21" s="114"/>
-      <c r="AZ21" s="114"/>
-      <c r="BA21" s="114"/>
-      <c r="BB21" s="114"/>
-      <c r="BC21" s="114"/>
-      <c r="BD21" s="114"/>
-      <c r="BE21" s="114"/>
-      <c r="BF21" s="114"/>
-      <c r="BG21" s="114"/>
-      <c r="BH21" s="114"/>
-      <c r="BI21" s="114"/>
-      <c r="BJ21" s="114"/>
-      <c r="BK21" s="114"/>
-      <c r="BL21" s="114"/>
-      <c r="BM21" s="114"/>
-      <c r="BN21" s="117"/>
-      <c r="BO21" s="117"/>
-      <c r="BP21" s="117"/>
-      <c r="BQ21" s="117"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="111"/>
-      <c r="BU21" s="111"/>
-      <c r="BV21" s="111"/>
-      <c r="BW21" s="111"/>
-      <c r="BX21" s="111"/>
-      <c r="BY21" s="111"/>
-      <c r="BZ21" s="114"/>
-      <c r="CA21" s="114"/>
-      <c r="CB21" s="114"/>
-      <c r="CC21" s="108"/>
-      <c r="CD21" s="108"/>
+      <c r="AM21" s="114"/>
+      <c r="AN21" s="114"/>
+      <c r="AO21" s="114"/>
+      <c r="AP21" s="114"/>
+      <c r="AQ21" s="114"/>
+      <c r="AR21" s="114"/>
+      <c r="AS21" s="114"/>
+      <c r="AT21" s="111"/>
+      <c r="AU21" s="111"/>
+      <c r="AV21" s="133"/>
+      <c r="AW21" s="133"/>
+      <c r="AX21" s="111"/>
+      <c r="AY21" s="111"/>
+      <c r="AZ21" s="111"/>
+      <c r="BA21" s="111"/>
+      <c r="BB21" s="111"/>
+      <c r="BC21" s="111"/>
+      <c r="BD21" s="111"/>
+      <c r="BE21" s="111"/>
+      <c r="BF21" s="111"/>
+      <c r="BG21" s="111"/>
+      <c r="BH21" s="111"/>
+      <c r="BI21" s="111"/>
+      <c r="BJ21" s="111"/>
+      <c r="BK21" s="111"/>
+      <c r="BL21" s="111"/>
+      <c r="BM21" s="111"/>
+      <c r="BN21" s="108"/>
+      <c r="BO21" s="108"/>
+      <c r="BP21" s="108"/>
+      <c r="BQ21" s="108"/>
+      <c r="BR21" s="108"/>
+      <c r="BS21" s="108"/>
+      <c r="BT21" s="127"/>
+      <c r="BU21" s="127"/>
+      <c r="BV21" s="127"/>
+      <c r="BW21" s="127"/>
+      <c r="BX21" s="127"/>
+      <c r="BY21" s="127"/>
+      <c r="BZ21" s="111"/>
+      <c r="CA21" s="111"/>
+      <c r="CB21" s="111"/>
+      <c r="CC21" s="124"/>
+      <c r="CD21" s="124"/>
       <c r="CE21" s="137"/>
-      <c r="CF21" s="108"/>
-      <c r="CG21" s="108"/>
-      <c r="CH21" s="108"/>
-      <c r="CI21" s="108"/>
-      <c r="CJ21" s="108"/>
-      <c r="CK21" s="108"/>
-      <c r="CL21" s="108"/>
-      <c r="CM21" s="108"/>
-      <c r="CN21" s="119"/>
-      <c r="CO21" s="120"/>
-      <c r="CP21" s="120"/>
-      <c r="CQ21" s="161"/>
+      <c r="CF21" s="124"/>
+      <c r="CG21" s="124"/>
+      <c r="CH21" s="124"/>
+      <c r="CI21" s="124"/>
+      <c r="CJ21" s="124"/>
+      <c r="CK21" s="124"/>
+      <c r="CL21" s="124"/>
+      <c r="CM21" s="124"/>
+      <c r="CN21" s="135"/>
+      <c r="CO21" s="116"/>
+      <c r="CP21" s="116"/>
+      <c r="CQ21" s="130"/>
     </row>
     <row r="22" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="143"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="157"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="87">
         <v>3</v>
       </c>
@@ -5069,71 +5068,71 @@
       <c r="AJ22" s="69"/>
       <c r="AK22" s="69"/>
       <c r="AL22" s="69"/>
-      <c r="AM22" s="140"/>
-      <c r="AN22" s="140"/>
-      <c r="AO22" s="140"/>
-      <c r="AP22" s="140"/>
-      <c r="AQ22" s="140"/>
-      <c r="AR22" s="140"/>
-      <c r="AS22" s="140"/>
-      <c r="AT22" s="114"/>
-      <c r="AU22" s="114"/>
-      <c r="AV22" s="149"/>
-      <c r="AW22" s="149"/>
-      <c r="AX22" s="114"/>
-      <c r="AY22" s="114"/>
-      <c r="AZ22" s="114"/>
-      <c r="BA22" s="114"/>
-      <c r="BB22" s="114"/>
-      <c r="BC22" s="114"/>
-      <c r="BD22" s="114"/>
-      <c r="BE22" s="114"/>
-      <c r="BF22" s="114"/>
-      <c r="BG22" s="114"/>
-      <c r="BH22" s="114"/>
-      <c r="BI22" s="114"/>
-      <c r="BJ22" s="114"/>
-      <c r="BK22" s="114"/>
-      <c r="BL22" s="114"/>
-      <c r="BM22" s="114"/>
-      <c r="BN22" s="117"/>
-      <c r="BO22" s="117"/>
-      <c r="BP22" s="117"/>
-      <c r="BQ22" s="117"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="111"/>
-      <c r="BU22" s="111"/>
-      <c r="BV22" s="111"/>
-      <c r="BW22" s="111"/>
-      <c r="BX22" s="111"/>
-      <c r="BY22" s="111"/>
-      <c r="BZ22" s="114"/>
-      <c r="CA22" s="114"/>
-      <c r="CB22" s="114"/>
-      <c r="CC22" s="108"/>
-      <c r="CD22" s="108"/>
+      <c r="AM22" s="114"/>
+      <c r="AN22" s="114"/>
+      <c r="AO22" s="114"/>
+      <c r="AP22" s="114"/>
+      <c r="AQ22" s="114"/>
+      <c r="AR22" s="114"/>
+      <c r="AS22" s="114"/>
+      <c r="AT22" s="111"/>
+      <c r="AU22" s="111"/>
+      <c r="AV22" s="133"/>
+      <c r="AW22" s="133"/>
+      <c r="AX22" s="111"/>
+      <c r="AY22" s="111"/>
+      <c r="AZ22" s="111"/>
+      <c r="BA22" s="111"/>
+      <c r="BB22" s="111"/>
+      <c r="BC22" s="111"/>
+      <c r="BD22" s="111"/>
+      <c r="BE22" s="111"/>
+      <c r="BF22" s="111"/>
+      <c r="BG22" s="111"/>
+      <c r="BH22" s="111"/>
+      <c r="BI22" s="111"/>
+      <c r="BJ22" s="111"/>
+      <c r="BK22" s="111"/>
+      <c r="BL22" s="111"/>
+      <c r="BM22" s="111"/>
+      <c r="BN22" s="108"/>
+      <c r="BO22" s="108"/>
+      <c r="BP22" s="108"/>
+      <c r="BQ22" s="108"/>
+      <c r="BR22" s="108"/>
+      <c r="BS22" s="108"/>
+      <c r="BT22" s="127"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="127"/>
+      <c r="BW22" s="127"/>
+      <c r="BX22" s="127"/>
+      <c r="BY22" s="127"/>
+      <c r="BZ22" s="111"/>
+      <c r="CA22" s="111"/>
+      <c r="CB22" s="111"/>
+      <c r="CC22" s="124"/>
+      <c r="CD22" s="124"/>
       <c r="CE22" s="137"/>
-      <c r="CF22" s="108"/>
-      <c r="CG22" s="108"/>
-      <c r="CH22" s="108"/>
-      <c r="CI22" s="108"/>
-      <c r="CJ22" s="108"/>
-      <c r="CK22" s="108"/>
-      <c r="CL22" s="108"/>
-      <c r="CM22" s="108"/>
-      <c r="CN22" s="119"/>
-      <c r="CO22" s="120"/>
-      <c r="CP22" s="120"/>
-      <c r="CQ22" s="161"/>
+      <c r="CF22" s="124"/>
+      <c r="CG22" s="124"/>
+      <c r="CH22" s="124"/>
+      <c r="CI22" s="124"/>
+      <c r="CJ22" s="124"/>
+      <c r="CK22" s="124"/>
+      <c r="CL22" s="124"/>
+      <c r="CM22" s="124"/>
+      <c r="CN22" s="135"/>
+      <c r="CO22" s="116"/>
+      <c r="CP22" s="116"/>
+      <c r="CQ22" s="130"/>
     </row>
     <row r="23" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="143"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="157"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="88">
         <v>3.9</v>
       </c>
@@ -5168,74 +5167,74 @@
       <c r="AJ23" s="70"/>
       <c r="AK23" s="70"/>
       <c r="AL23" s="70"/>
-      <c r="AM23" s="140"/>
-      <c r="AN23" s="140"/>
-      <c r="AO23" s="140"/>
-      <c r="AP23" s="140"/>
-      <c r="AQ23" s="140"/>
-      <c r="AR23" s="140"/>
-      <c r="AS23" s="140"/>
-      <c r="AT23" s="114"/>
-      <c r="AU23" s="114"/>
-      <c r="AV23" s="149"/>
-      <c r="AW23" s="149"/>
-      <c r="AX23" s="114"/>
-      <c r="AY23" s="114"/>
-      <c r="AZ23" s="114"/>
-      <c r="BA23" s="114"/>
-      <c r="BB23" s="114"/>
-      <c r="BC23" s="114"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="114"/>
-      <c r="BF23" s="114"/>
-      <c r="BG23" s="114"/>
-      <c r="BH23" s="114"/>
-      <c r="BI23" s="114"/>
-      <c r="BJ23" s="114"/>
-      <c r="BK23" s="114"/>
-      <c r="BL23" s="114"/>
-      <c r="BM23" s="114"/>
-      <c r="BN23" s="117"/>
-      <c r="BO23" s="117"/>
-      <c r="BP23" s="117"/>
-      <c r="BQ23" s="117"/>
-      <c r="BR23" s="117"/>
-      <c r="BS23" s="117"/>
-      <c r="BT23" s="111"/>
-      <c r="BU23" s="111"/>
-      <c r="BV23" s="111"/>
-      <c r="BW23" s="111"/>
-      <c r="BX23" s="111"/>
-      <c r="BY23" s="111"/>
-      <c r="BZ23" s="114"/>
-      <c r="CA23" s="114"/>
-      <c r="CB23" s="114"/>
-      <c r="CC23" s="108"/>
-      <c r="CD23" s="108"/>
+      <c r="AM23" s="114"/>
+      <c r="AN23" s="114"/>
+      <c r="AO23" s="114"/>
+      <c r="AP23" s="114"/>
+      <c r="AQ23" s="114"/>
+      <c r="AR23" s="114"/>
+      <c r="AS23" s="114"/>
+      <c r="AT23" s="111"/>
+      <c r="AU23" s="111"/>
+      <c r="AV23" s="133"/>
+      <c r="AW23" s="133"/>
+      <c r="AX23" s="111"/>
+      <c r="AY23" s="111"/>
+      <c r="AZ23" s="111"/>
+      <c r="BA23" s="111"/>
+      <c r="BB23" s="111"/>
+      <c r="BC23" s="111"/>
+      <c r="BD23" s="111"/>
+      <c r="BE23" s="111"/>
+      <c r="BF23" s="111"/>
+      <c r="BG23" s="111"/>
+      <c r="BH23" s="111"/>
+      <c r="BI23" s="111"/>
+      <c r="BJ23" s="111"/>
+      <c r="BK23" s="111"/>
+      <c r="BL23" s="111"/>
+      <c r="BM23" s="111"/>
+      <c r="BN23" s="108"/>
+      <c r="BO23" s="108"/>
+      <c r="BP23" s="108"/>
+      <c r="BQ23" s="108"/>
+      <c r="BR23" s="108"/>
+      <c r="BS23" s="108"/>
+      <c r="BT23" s="127"/>
+      <c r="BU23" s="127"/>
+      <c r="BV23" s="127"/>
+      <c r="BW23" s="127"/>
+      <c r="BX23" s="127"/>
+      <c r="BY23" s="127"/>
+      <c r="BZ23" s="111"/>
+      <c r="CA23" s="111"/>
+      <c r="CB23" s="111"/>
+      <c r="CC23" s="124"/>
+      <c r="CD23" s="124"/>
       <c r="CE23" s="137"/>
-      <c r="CF23" s="108"/>
-      <c r="CG23" s="108"/>
-      <c r="CH23" s="108"/>
-      <c r="CI23" s="108"/>
-      <c r="CJ23" s="108"/>
-      <c r="CK23" s="108"/>
-      <c r="CL23" s="108"/>
-      <c r="CM23" s="108"/>
-      <c r="CN23" s="119"/>
-      <c r="CO23" s="120"/>
-      <c r="CP23" s="120"/>
-      <c r="CQ23" s="161"/>
+      <c r="CF23" s="124"/>
+      <c r="CG23" s="124"/>
+      <c r="CH23" s="124"/>
+      <c r="CI23" s="124"/>
+      <c r="CJ23" s="124"/>
+      <c r="CK23" s="124"/>
+      <c r="CL23" s="124"/>
+      <c r="CM23" s="124"/>
+      <c r="CN23" s="135"/>
+      <c r="CO23" s="116"/>
+      <c r="CP23" s="116"/>
+      <c r="CQ23" s="130"/>
     </row>
     <row r="24" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="144"/>
-      <c r="B24" s="147"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="158" t="s">
+      <c r="A24" s="119"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="158"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
       <c r="J24" s="71"/>
@@ -5267,74 +5266,74 @@
       <c r="AJ24" s="33"/>
       <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
-      <c r="AM24" s="141"/>
-      <c r="AN24" s="141"/>
-      <c r="AO24" s="141"/>
-      <c r="AP24" s="141"/>
-      <c r="AQ24" s="141"/>
-      <c r="AR24" s="141"/>
-      <c r="AS24" s="141"/>
-      <c r="AT24" s="115"/>
-      <c r="AU24" s="115"/>
-      <c r="AV24" s="150"/>
-      <c r="AW24" s="150"/>
-      <c r="AX24" s="115"/>
-      <c r="AY24" s="115"/>
-      <c r="AZ24" s="115"/>
-      <c r="BA24" s="115"/>
-      <c r="BB24" s="115"/>
-      <c r="BC24" s="115"/>
-      <c r="BD24" s="115"/>
-      <c r="BE24" s="115"/>
-      <c r="BF24" s="115"/>
-      <c r="BG24" s="115"/>
-      <c r="BH24" s="115"/>
-      <c r="BI24" s="115"/>
-      <c r="BJ24" s="115"/>
-      <c r="BK24" s="115"/>
-      <c r="BL24" s="115"/>
-      <c r="BM24" s="115"/>
-      <c r="BN24" s="118"/>
-      <c r="BO24" s="118"/>
-      <c r="BP24" s="118"/>
-      <c r="BQ24" s="118"/>
-      <c r="BR24" s="118"/>
-      <c r="BS24" s="118"/>
-      <c r="BT24" s="112"/>
-      <c r="BU24" s="112"/>
-      <c r="BV24" s="112"/>
-      <c r="BW24" s="112"/>
-      <c r="BX24" s="112"/>
-      <c r="BY24" s="112"/>
-      <c r="BZ24" s="115"/>
-      <c r="CA24" s="115"/>
-      <c r="CB24" s="115"/>
-      <c r="CC24" s="109"/>
-      <c r="CD24" s="109"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="115"/>
+      <c r="AR24" s="115"/>
+      <c r="AS24" s="115"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="134"/>
+      <c r="AW24" s="134"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="112"/>
+      <c r="AZ24" s="112"/>
+      <c r="BA24" s="112"/>
+      <c r="BB24" s="112"/>
+      <c r="BC24" s="112"/>
+      <c r="BD24" s="112"/>
+      <c r="BE24" s="112"/>
+      <c r="BF24" s="112"/>
+      <c r="BG24" s="112"/>
+      <c r="BH24" s="112"/>
+      <c r="BI24" s="112"/>
+      <c r="BJ24" s="112"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="112"/>
+      <c r="BM24" s="112"/>
+      <c r="BN24" s="109"/>
+      <c r="BO24" s="109"/>
+      <c r="BP24" s="109"/>
+      <c r="BQ24" s="109"/>
+      <c r="BR24" s="109"/>
+      <c r="BS24" s="109"/>
+      <c r="BT24" s="128"/>
+      <c r="BU24" s="128"/>
+      <c r="BV24" s="128"/>
+      <c r="BW24" s="128"/>
+      <c r="BX24" s="128"/>
+      <c r="BY24" s="128"/>
+      <c r="BZ24" s="112"/>
+      <c r="CA24" s="112"/>
+      <c r="CB24" s="112"/>
+      <c r="CC24" s="125"/>
+      <c r="CD24" s="125"/>
       <c r="CE24" s="138"/>
-      <c r="CF24" s="109"/>
-      <c r="CG24" s="109"/>
-      <c r="CH24" s="109"/>
-      <c r="CI24" s="109"/>
-      <c r="CJ24" s="109"/>
-      <c r="CK24" s="109"/>
-      <c r="CL24" s="109"/>
-      <c r="CM24" s="109"/>
-      <c r="CN24" s="119"/>
-      <c r="CO24" s="120"/>
-      <c r="CP24" s="120"/>
-      <c r="CQ24" s="162"/>
+      <c r="CF24" s="125"/>
+      <c r="CG24" s="125"/>
+      <c r="CH24" s="125"/>
+      <c r="CI24" s="125"/>
+      <c r="CJ24" s="125"/>
+      <c r="CK24" s="125"/>
+      <c r="CL24" s="125"/>
+      <c r="CM24" s="125"/>
+      <c r="CN24" s="135"/>
+      <c r="CO24" s="116"/>
+      <c r="CP24" s="116"/>
+      <c r="CQ24" s="131"/>
     </row>
     <row r="25" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="142"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="151" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="152"/>
+      <c r="G25" s="146"/>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
       <c r="J25" s="71"/>
@@ -5366,236 +5365,236 @@
       <c r="AJ25" s="71"/>
       <c r="AK25" s="71"/>
       <c r="AL25" s="71"/>
-      <c r="AM25" s="139">
+      <c r="AM25" s="113">
         <f>COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"PH/L")+COUNTIF(H25:AL25,"PM")</f>
         <v>0</v>
       </c>
-      <c r="AN25" s="139">
+      <c r="AN25" s="113">
         <f>COUNTIF(H25:AL25,"PD")+COUNTIF(H25:AL25,"PDD")+COUNTIF(H25:AL25,"P/DS")/2+COUNTIF(H25:AL25,"PMD")</f>
         <v>0</v>
       </c>
-      <c r="AO25" s="139">
+      <c r="AO25" s="113">
         <f>COUNTIF(H25:AL25,"PN")+COUNTIF(H25:AL25,"P/NS")/2+COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"PH/F")/2+COUNTIF(H25:AL25,"PH/L")/2+COUNTIF(H25:AL25,"PM")</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="139">
+      <c r="AP25" s="113">
         <f>COUNTIF(H25:AL25,"BH")+COUNTIF(H25:AL25,"AL/BL")+COUNTIF(H25:AL25,"UL/BL")+COUNTIF(H25:AL25,"BM")</f>
         <v>0</v>
       </c>
-      <c r="AQ25" s="139">
+      <c r="AQ25" s="113">
         <f>COUNTIF(H25:AL25,"DS")+COUNTIF(H25:AL25,"AL/DS")/2+COUNTIF(H25:AL25,"UL/DS")/2+COUNTIF(H25:AL25,"CT")+COUNTIF(H25:AL25,"MD")</f>
         <v>0</v>
       </c>
-      <c r="AR25" s="139">
+      <c r="AR25" s="113">
         <f>COUNTIF(H25:AL25,"NS")+COUNTIF(H25:AL25,"AL/NS")/2+COUNTIF(H25:AL25,"UL/NS")/2+COUNTIF(H25:AL25,"BH")+COUNTIF(H25:AL25,"AL/BF")/2+COUNTIF(H25:AL25,"AL/BL")/2+COUNTIF(H25:AL25,"UL/BL")/2+COUNTIF(H25:AL25,"UL/BF")/2+COUNTIF(H25:AL25,"BM")</f>
         <v>0</v>
       </c>
-      <c r="AS25" s="139">
-        <f>COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")/2+COUNTIF(H25:AL25,"AL/NS")/2+COUNTIF(H25:AL25,"NH")+COUNTIF(H25:AL25,"SL")+COUNTIF(H25:AL25,"NHD")+COUNTIF(H25:AL25,"B")+COUNTIF(H25:AL25,"HL")+COUNTIF(H25:AL25,"AL/BF")/2+COUNTIF(H25:AL25,"AL/BL")/2</f>
-        <v>0</v>
-      </c>
-      <c r="AT25" s="113">
-        <f>COUNTIF(H25:AL25,"PD")+COUNTIF(H25:AL25,"PN")+COUNTIF(H25:AL25,"P/DS")/2+COUNTIF(H25:AL25,"P/NS")/2+COUNTIF(H25:AL25,"DS")+COUNTIF(H25:AL25,"NS")+COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")+COUNTIF(H25:AL25,"AL/NS")+COUNTIF(H25:AL25,"NH")+COUNTIF(H25:AL25,"SL")+COUNTIF(H25:AL25,"UL/DS")/2+COUNTIF(H25:AL25,"UL/NS")/2+COUNTIF(H25:AL25,"CT")+COUNTIF(H25:AL25,"NHD")+COUNTIF(H25:AL25,"PDD")+COUNTIF(H25:AL25,"B")+COUNTIF(H25:AL25,"HL")+COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"BH")+COUNTIF(H25:AL25,"AL/BF")+COUNTIF(H25:AL25,"AL/BL")+COUNTIF(H25:AL25,"UL/BF")/2+COUNTIF(H25:AL25,"UL/BL")/2+COUNTIF(H25:AL25,"PH/F")/2+COUNTIF(H25:AL25,"PH/L")/2+COUNTIF(H25:AL25,"MD")+COUNTIF(H25:AL25,"PMD")+COUNTIF(H25:AL25,"PM")+COUNTIF(H25:AL25,"BM")</f>
-        <v>0</v>
-      </c>
-      <c r="AU25" s="113">
-        <f>COUNTIF(H25:AL25,"P/DS")/2+COUNTIF(H25:AL25,"P/NS")/2+COUNTIF(H25:AL25,"IL")+COUNTIF(H25:AL25,"NL")+COUNTIF(H25:AL25,"UL")+COUNTIF(H25:AL25,"UL/DS")/2+COUNTIF(H25:AL25,"UL/NS")/2+COUNTIF(H25:AL25,"KT")+COUNTIF(H25:AL25,"UL/BF")/2+COUNTIF(H25:AL25,"UL/BL")/2+COUNTIF(H25:AL25,"PH/F")/2+COUNTIF(H25:AL25,"PH/L")/2+COUNTIF(H25:AL25,"NB")</f>
-        <v>0</v>
-      </c>
-      <c r="AV25" s="148">
-        <f>COUNTIF(H25:AL25,"PN")+COUNTIF(H25:AL25,"TVD")+COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"PM")+COUNTIF(H25:AL25,"PDD")-COUNTIFS(H25:AL25,"PN",H32:AL32,"&gt;=3")-COUNTIFS(H25:AL25,"PM",H32:AL32,"&gt;=3")</f>
-        <v>0</v>
-      </c>
-      <c r="AW25" s="148">
+      <c r="AS25" s="113">
+        <f>COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")/2+COUNTIF(H25:AL25,"AL/NS")/2+COUNTIF(H25:AL25,"NH")+COUNTIF(H25:AL25,"SL")+COUNTIF(H25:AL25,"NHD")+COUNTIF(H25:AL25,"B")+COUNTIF(H25:AL25,"HL")+COUNTIF(H25:AL25,"AL/BF")/2+COUNTIF(H25:AL25,"AL/BL")/2 + COUNTIF(H25:AL25,"AL30")</f>
+        <v>0</v>
+      </c>
+      <c r="AT25" s="110">
+        <f>COUNTIF(H25:AL25,"PD")+COUNTIF(H25:AL25,"PN")+COUNTIF(H25:AL25,"P/DS")/2+COUNTIF(H25:AL25,"P/NS")/2+COUNTIF(H25:AL25,"DS")+COUNTIF(H25:AL25,"NS")+COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")+COUNTIF(H25:AL25,"AL/NS")+COUNTIF(H25:AL25,"NH")+COUNTIF(H25:AL25,"SL")+COUNTIF(H25:AL25,"UL/DS")/2+COUNTIF(H25:AL25,"UL/NS")/2+COUNTIF(H25:AL25,"CT")+COUNTIF(H25:AL25,"NHD")+COUNTIF(H25:AL25,"PDD")+COUNTIF(H25:AL25,"B")+COUNTIF(H25:AL25,"HL")+COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"BH")+COUNTIF(H25:AL25,"AL/BF")+COUNTIF(H25:AL25,"AL/BL")+COUNTIF(H25:AL25,"UL/BF")/2+COUNTIF(H25:AL25,"UL/BL")/2+COUNTIF(H25:AL25,"PH/F")/2+COUNTIF(H25:AL25,"PH/L")/2+COUNTIF(H25:AL25,"MD")+COUNTIF(H25:AL25,"PMD")+COUNTIF(H25:AL25,"PM")+COUNTIF(H25:AL25,"BM") + COUNTIF(H25:AL25,"AL30")</f>
+        <v>0</v>
+      </c>
+      <c r="AU25" s="110">
+        <f>COUNTIF(H25:AL25,"P/DS")/2+COUNTIF(H25:AL25,"P/NS")/2+COUNTIF(H25:AL25,"IL")+COUNTIF(H25:AL25,"NL")+COUNTIF(H25:AL25,"UL")+COUNTIF(H25:AL25,"UL/DS")/2+COUNTIF(H25:AL25,"UL/NS")/2+COUNTIF(H25:AL25,"KT")+COUNTIF(H25:AL25,"UL/BF")/2+COUNTIF(H25:AL25,"UL/BL")/2+COUNTIF(H25:AL25,"PH/F")/2+COUNTIF(H25:AL25,"PH/L")/2+COUNTIF(H25:AL25,"NB")+COUNTIF(H25:AL25,"L160")</f>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="132">
+        <f>COUNTIF(H25:AL25,"PN")+COUNTIF(H25:AL25,"TVD")+COUNTIF(H25:AL25,"PH")+COUNTIF(H25:AL25,"PM")+COUNTIF(H25:AL25,"PDD")-COUNTIFS(H25:AL25,"PN",H32:AL32,"&gt;="&amp;3)-COUNTIFS(H25:AL25,"PM",H32:AL32,"&gt;="&amp;3)</f>
+        <v>0</v>
+      </c>
+      <c r="AW25" s="132">
         <f>COUNTIF(H25:AL25,"NS")+COUNTIF(H25:AL25,"D")+COUNTIF(H25:AL25,"BH")+COUNTIF(H25:AL25,"NHD")+COUNTIF(H25:AL25,"BM")-COUNTIFS(H25:AL25,"NS",H32:AL32,"&gt;=3")-COUNTIFS(H25:AL25,"BH",H32:AL32,"&gt;=3")-COUNTIFS(H25:AL25,"BM",H32:AL32,"&gt;=3")</f>
         <v>0</v>
       </c>
-      <c r="AX25" s="113">
-        <f>COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")/2+COUNTIF(H25:AL25,"AL/NS")/2+COUNTIF(H25:AL25,"AL/BF")+COUNTIF(H25:AL25,"AL/BL")/2</f>
-        <v>0</v>
-      </c>
-      <c r="AY25" s="113">
+      <c r="AX25" s="110">
+        <f>COUNTIF(H25:AL25,"AL")+COUNTIF(H25:AL25,"AL/DS")/2+COUNTIF(H25:AL25,"AL/NS")/2+COUNTIF(H25:AL25,"AL/BF")/2+COUNTIF(H25:AL25,"AL/BL")/2</f>
+        <v>0</v>
+      </c>
+      <c r="AY25" s="110">
         <f>COUNTIF(H25:AL25,"AL30")</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="113">
+      <c r="AZ25" s="110">
         <f>COUNTIF(H25:AL25,"L160")</f>
         <v>0</v>
       </c>
-      <c r="BA25" s="113">
+      <c r="BA25" s="110">
         <f>COUNTIF(H25:AL25,"SL")</f>
         <v>0</v>
       </c>
-      <c r="BB25" s="113">
+      <c r="BB25" s="110">
         <f>COUNTIF(H25:AL25,"NH")</f>
         <v>0</v>
       </c>
-      <c r="BC25" s="113">
+      <c r="BC25" s="110">
         <f>COUNTIF(H25:AL25,"HL")</f>
         <v>0</v>
       </c>
-      <c r="BD25" s="113">
+      <c r="BD25" s="110">
         <f>COUNTIF(G25:AL25,"P/DS")/2+COUNTIF(G25:AL25,"P/NS")/2+COUNTIF(G25:AL25,"UL")+COUNTIF(G25:AL25,"UL/DS")/2+COUNTIF(G25:AL25,"UL/NS")/2+COUNTIF(G25:AL25,"UL/BL")/2+COUNTIF(G25:AL25,"UL/BF")/2+COUNTIF(G25:AL25,"PH/F")/2+COUNTIF(G25:AL25,"PH/L")/2</f>
         <v>0</v>
       </c>
-      <c r="BE25" s="113">
+      <c r="BE25" s="110">
         <f>COUNTIF(H25:AL25,"NB")</f>
         <v>0</v>
       </c>
-      <c r="BF25" s="113">
+      <c r="BF25" s="110">
         <f>COUNTIF(H25:AL25,"NL")</f>
         <v>0</v>
       </c>
-      <c r="BG25" s="113">
+      <c r="BG25" s="110">
         <f>COUNTIF(H25:AL25,"IL")</f>
         <v>0</v>
       </c>
-      <c r="BH25" s="113">
+      <c r="BH25" s="110">
         <f>COUNTIF(H25:AL25,"KT")</f>
         <v>0</v>
       </c>
-      <c r="BI25" s="113">
+      <c r="BI25" s="110">
         <f>COUNTIF(H25:AL25,"L70")</f>
         <v>0</v>
       </c>
-      <c r="BJ25" s="113">
+      <c r="BJ25" s="110">
         <f>COUNTIF(H25:AL25,"MD")</f>
         <v>0</v>
       </c>
-      <c r="BK25" s="113">
+      <c r="BK25" s="110">
         <f>COUNTIF(H25:AL25,"PMD")</f>
         <v>0</v>
       </c>
-      <c r="BL25" s="113">
+      <c r="BL25" s="110">
         <f>COUNTIF(H25:AL25,"PM")</f>
         <v>0</v>
       </c>
-      <c r="BM25" s="113">
+      <c r="BM25" s="110">
         <f>COUNTIF(H25:AL25,"BM")</f>
         <v>0</v>
       </c>
-      <c r="BN25" s="116">
+      <c r="BN25" s="107">
         <f>SUMIF(H25:AL25,"PD",H26:AL26)+SUMIF(H25:AL25,"PN",H26:AL26)+SUMIF(H25:AL25,"P/DS",H26:AL26)+SUMIF(H25:AL25,"PN/F",H26:AL26)+SUMIF(H25:AL25,"PN/L",H26:AL26)+SUMIF(H25:AL25,"TV",H26:AL26)+SUMIF(H25:AL25,"TVD",H26:AL26)+SUMIF(H25:AL25,"PDD",H26:AL26)</f>
         <v>0</v>
       </c>
-      <c r="BO25" s="116">
+      <c r="BO25" s="107">
         <f>SUMIF(H25:AL25,"PD",H27:AL27)+SUMIF(H25:AL25,"PN",H27:AL27)+SUMIF(H25:AL25,"P/DS",H27:AL27)+SUMIF(H25:AL25,"PN/F",H27:AL27)+SUMIF(H25:AL25,"PN/L",H27:AL27)+SUMIF(H25:AL25,"TV",H27:AL27)+SUMIF(H25:AL25,"TVD",H27:AL27)+SUMIF(H25:AL25,"PDD",H27:AL27)+SUMIF(H25:AL25,"PMD",H27:AL27)</f>
         <v>0</v>
       </c>
-      <c r="BP25" s="116">
+      <c r="BP25" s="107">
         <f>SUMIF(H25:AL25,"PD",H28:AL28)+SUMIF(H25:AL25,"PN",H28:AL28)+SUMIF(H25:AL25,"P/DS",H28:AL28)+SUMIF(H25:AL25,"PN/F",H28:AL28)+SUMIF(H25:AL25,"PN/L",H28:AL28)+SUMIF(H25:AL25,"TV",H28:AL28)+SUMIF(H25:AL25,"TVD",H28:AL28)</f>
         <v>0</v>
       </c>
-      <c r="BQ25" s="116">
+      <c r="BQ25" s="107">
         <f>SUMIF(H25:AL25,"PD",H29:AL29)+SUMIF(H25:AL25,"PN",H29:AL29)+SUMIF(H25:AL25,"P/DS",H29:AL29)+SUMIF(H25:AL25,"PN/F",H29:AL29)+SUMIF(H25:AL25,"PN/L",H29:AL29)+SUMIF(H25:AL25,"TV",H29:AL29)+SUMIF(H25:AL25,"TVD",H29:AL29)</f>
         <v>0</v>
       </c>
-      <c r="BR25" s="116">
+      <c r="BR25" s="107">
         <f>SUMIF(H25:AL25,"PD",H30:AL30)+SUMIF(H25:AL25,"PN",H30:AL30)+SUMIF(H25:AL25,"P/DS",H30:AL30)+SUMIF(H25:AL25,"PN/F",H30:AL30)+SUMIF(H25:AL25,"PN/L",H30:AL30)+SUMIF(H25:AL25,"TV",H30:AL30)+SUMIF(H25:AL25,"TVD",H30:AL30)+SUMIF(H25:AL25,"PDD",H30:AL30)+SUMIF(H25:AL25,"PH",H30:AL30)+SUMIF(H25:AL25,"PM",H30:AL30)</f>
         <v>0</v>
       </c>
-      <c r="BS25" s="116">
+      <c r="BS25" s="107">
         <f>SUMIF(H25:AL25,"PD",H31:AL31)+SUMIF(H25:AL25,"PN",H31:AL31)+SUMIF(H25:AL25,"P/DS",H31:AL31)+SUMIF(H25:AL25,"PN/F",H31:AL31)+SUMIF(H25:AL25,"PN/L",H31:AL31)+SUMIF(H25:AL25,"TV",H31:AL31)+SUMIF(H25:AL25,"TVD",H31:AL31)+SUMIF(H25:AL25,"PDD",H31:AL31)+SUMIF(H25:AL25,"PH",H31:AL31)+SUMIF(H25:AL25,"PM",H31:AL31)</f>
         <v>0</v>
       </c>
-      <c r="BT25" s="110">
+      <c r="BT25" s="126">
         <f>SUM(H26:AL26)-BN25</f>
         <v>0</v>
       </c>
-      <c r="BU25" s="110">
+      <c r="BU25" s="126">
         <f>SUM(H27:AL27)-BO25</f>
         <v>0</v>
       </c>
-      <c r="BV25" s="110">
+      <c r="BV25" s="126">
         <f>SUM(H28:AL28)-BP25</f>
         <v>0</v>
       </c>
-      <c r="BW25" s="110">
+      <c r="BW25" s="126">
         <f>SUM(H29:AL29)-BQ25</f>
         <v>0</v>
       </c>
-      <c r="BX25" s="110">
+      <c r="BX25" s="126">
         <f>SUM(H30:AL30)-BR25</f>
         <v>0</v>
       </c>
-      <c r="BY25" s="110">
+      <c r="BY25" s="126">
         <f>SUM(H31:AL31)-BS25</f>
         <v>0</v>
       </c>
-      <c r="BZ25" s="113">
+      <c r="BZ25" s="110">
         <f>SUMIF(H25:AL25,"PD",H32:AL32)+SUMIF(H25:AL25,"PN",H32:AL32)+SUMIF(H25:AL25,"P/DS",H32:AL32)+SUMIF(H25:AL25,"PN/F",H32:AL32)+SUMIF(H25:AL25,"PN/L",H32:AL32)</f>
         <v>0</v>
       </c>
-      <c r="CA25" s="113">
+      <c r="CA25" s="110">
         <f>SUM(H32:AL32)-BZ25</f>
         <v>0</v>
       </c>
-      <c r="CB25" s="113">
-        <f t="shared" ref="CB25" si="6">+SUM(BN25:BY32)</f>
-        <v>0</v>
-      </c>
-      <c r="CC25" s="107">
+      <c r="CB25" s="110">
+        <f>+SUM(BN25:BY32)</f>
+        <v>0</v>
+      </c>
+      <c r="CC25" s="123">
         <f>(COUNTIFS(H25:AL25,"PD",H26:AL26,"&gt;=2"))*0.5-IF(CP25="VP",COUNTIFS($H$16:$AL$16,"SAT",H25:AL25,"PD",H26:AL26,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CD25" s="107">
-        <f>(COUNTIFS(H25:AL25,"PN",H27:AL27,"&gt;=0.5",H26:AL26,"&gt;=1.5"))*0.5+COUNTIFS(H25:AL25,"PDD",H27:AL27,"&gt;=0.5",H26:AL26,"&gt;=1.5")*0.5</f>
+      <c r="CD25" s="123">
+        <f>(COUNTIFS(H25:AL25,"PN",H27:AL27,"&gt;="&amp;0.5,H26:AL26,"&gt;="&amp;1.5))*0.5+COUNTIFS(H25:AL25,"PDD",H27:AL27,"&gt;="&amp;0.5,H26:AL26,"&gt;="&amp;1.5)*0.5</f>
         <v>0</v>
       </c>
       <c r="CE25" s="136">
         <f>(COUNTIFS(H25:AL25,"TV",H27:AL27,"&gt;=10"))*0.5+(COUNTIFS(H25:AL25,"PMD",H27:AL27,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CF25" s="107">
-        <f>(COUNTIFS(H25:AL25,"TVD",H29:AL29,"&gt;=6.5",H27:AL27,"&gt;=3.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CG25" s="107">
+      <c r="CF25" s="123">
+        <f>(COUNTIFS(H25:AL25,"TVD",H29:AL29,"&gt;="&amp;6.5,H27:AL27,"&gt;="&amp;3.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CG25" s="123">
         <f>(COUNTIFS(H25:AL25,"PD",H30:AL30,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CH25" s="107">
-        <f>(COUNTIFS(H25:AL25,"PDD",H30:AL30,"&gt;=3.5",H31:AL31,"&gt;=6.5")+COUNTIFS(H25:AL25,"PH",H31:AL31,"&gt;=0.5",H30:AL30,"&gt;=1.5")+COUNTIFS(H25:AL25,"PM",H31:AL31,"&gt;=0.5",H30:AL30,"&gt;=1.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CI25" s="107">
+      <c r="CH25" s="123">
+        <f>(COUNTIFS(H25:AL25,"PDD",H30:AL30,"&gt;="&amp;3.5,H31:AL31,"&gt;="&amp;6.5)+COUNTIFS(H25:AL25,"PH",H31:AL31,"&gt;="&amp;0.5,H30:AL30,"&gt;="&amp;1.5)+COUNTIFS(H25:AL25,"PM",H31:AL31,"&gt;="&amp;0.5,H30:AL30,"&gt;="&amp;1.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CI25" s="123">
         <f>(COUNTIFS(H25:AL25,"DS",H26:AL26,"&gt;=2")+COUNTIFS(H25:AL25,"AL/DS",H26:AL26,"&gt;=2"))*0.5-IF(CP25="VP",COUNTIFS($H$16:$AL$16,"SAT",H25:AL25,"DS",H26:AL26,"&gt;=2"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CJ25" s="107">
-        <f>(COUNTIFS(H25:AL25,"NS",H27:AL27,"&gt;=0.5",H26:AL26,"&gt;=1.5")+COUNTIFS(H25:AL25,"AL/NS",H27:AL27,"&gt;=0.5",H26:AL26,"&gt;=1.5")+COUNTIFS(H25:AL25,"NHD",H27:AL27,"&gt;=4.5",H30:AL30,"&gt;=2",H26:AL26,"&gt;=1.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CK25" s="107">
+      <c r="CJ25" s="123">
+        <f>(COUNTIFS(H25:AL25,"NS",H27:AL27,"&gt;="&amp;0.5,H26:AL26,"&gt;="&amp;1.5)+COUNTIFS(H25:AL25,"AL/NS",H27:AL27,"&gt;="&amp;0.5,H26:AL26,"&gt;="&amp;1.5)+COUNTIFS(H25:AL25,"NHD",H27:AL27,"&gt;="&amp;4.5,H30:AL30,"&gt;="&amp;2,H26:AL26,"&gt;="&amp;1.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CK25" s="123">
         <f>(COUNTIF(H27:AL27,"&gt;=10")+COUNTIFS(H25:AL25,"MD",H27:AL27,"&gt;=2")-COUNTIFS(H25:AL25,"TV",H27:AL27,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CL25" s="107">
-        <f>(COUNTIFS(H25:AL25,"D",H29:AL29,"&gt;=6.5",H27:AL27,"&gt;=3.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CM25" s="107">
+      <c r="CL25" s="123">
+        <f>(COUNTIFS(H25:AL25,"D",H29:AL29,"&gt;="&amp;6.5,H27:AL27,"&gt;="&amp;3.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CM25" s="123">
         <f>(COUNTIF(H30:AL30,"&gt;=10")-COUNTIFS(H25:AL25,"PD",H30:AL30,"&gt;=10"))*0.5</f>
         <v>0</v>
       </c>
-      <c r="CN25" s="119">
-        <f>(COUNTIFS(H25:AL25,"NHD",H30:AL30,"&gt;=3.5",H31:AL31,"&gt;=6.5")+COUNTIFS(H25:AL25,"BH",H30:AL30,"&gt;=1.5",H31:AL31,"&gt;=0.5")+COUNTIFS(H25:AL25,"BM",H30:AL30,"&gt;=1.5",H31:AL31,"&gt;=0.5")+COUNTIFS(H25:AL25,"D",H30:AL30,"&gt;=1.5",H31:AL31,"&gt;=0.5"))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="CO25" s="120"/>
-      <c r="CP25" s="120"/>
-      <c r="CQ25" s="160">
+      <c r="CN25" s="135">
+        <f>(COUNTIFS(H25:AL25,"NHD",H30:AL30,"&gt;="&amp;3.5,H31:AL31,"&gt;="&amp;6.5)+COUNTIFS(H25:AL25,"BH",H30:AL30,"&gt;="&amp;1.5,H31:AL31,"&gt;="&amp;0.5)+COUNTIFS(H25:AL25,"BM",H30:AL30,"&gt;="&amp;1.5,H31:AL31,"&gt;="&amp;0.5)+COUNTIFS(H25:AL25,"D",H30:AL30,"&gt;="&amp;1.5,H31:AL31,"&gt;="&amp;0.5))*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="CO25" s="116"/>
+      <c r="CP25" s="116"/>
+      <c r="CQ25" s="129">
         <f>+AM25+AN25+AO25+AP25+AQ25+AR25+AS25+AU25+BI25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="143"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="156" t="s">
+      <c r="A26" s="118"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="120" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="86">
@@ -5632,71 +5631,71 @@
       <c r="AJ26" s="68"/>
       <c r="AK26" s="68"/>
       <c r="AL26" s="68"/>
-      <c r="AM26" s="140"/>
-      <c r="AN26" s="140"/>
-      <c r="AO26" s="140"/>
-      <c r="AP26" s="140"/>
-      <c r="AQ26" s="140"/>
-      <c r="AR26" s="140"/>
-      <c r="AS26" s="140"/>
-      <c r="AT26" s="114"/>
-      <c r="AU26" s="114"/>
-      <c r="AV26" s="149"/>
-      <c r="AW26" s="149"/>
-      <c r="AX26" s="114"/>
-      <c r="AY26" s="114"/>
-      <c r="AZ26" s="114"/>
-      <c r="BA26" s="114"/>
-      <c r="BB26" s="114"/>
-      <c r="BC26" s="114"/>
-      <c r="BD26" s="114"/>
-      <c r="BE26" s="114"/>
-      <c r="BF26" s="114"/>
-      <c r="BG26" s="114"/>
-      <c r="BH26" s="114"/>
-      <c r="BI26" s="114"/>
-      <c r="BJ26" s="114"/>
-      <c r="BK26" s="114"/>
-      <c r="BL26" s="114"/>
-      <c r="BM26" s="114"/>
-      <c r="BN26" s="117"/>
-      <c r="BO26" s="117"/>
-      <c r="BP26" s="117"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="111"/>
-      <c r="BU26" s="111"/>
-      <c r="BV26" s="111"/>
-      <c r="BW26" s="111"/>
-      <c r="BX26" s="111"/>
-      <c r="BY26" s="111"/>
-      <c r="BZ26" s="114"/>
-      <c r="CA26" s="114"/>
-      <c r="CB26" s="114"/>
-      <c r="CC26" s="108"/>
-      <c r="CD26" s="108"/>
+      <c r="AM26" s="114"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="111"/>
+      <c r="AU26" s="111"/>
+      <c r="AV26" s="133"/>
+      <c r="AW26" s="133"/>
+      <c r="AX26" s="111"/>
+      <c r="AY26" s="111"/>
+      <c r="AZ26" s="111"/>
+      <c r="BA26" s="111"/>
+      <c r="BB26" s="111"/>
+      <c r="BC26" s="111"/>
+      <c r="BD26" s="111"/>
+      <c r="BE26" s="111"/>
+      <c r="BF26" s="111"/>
+      <c r="BG26" s="111"/>
+      <c r="BH26" s="111"/>
+      <c r="BI26" s="111"/>
+      <c r="BJ26" s="111"/>
+      <c r="BK26" s="111"/>
+      <c r="BL26" s="111"/>
+      <c r="BM26" s="111"/>
+      <c r="BN26" s="108"/>
+      <c r="BO26" s="108"/>
+      <c r="BP26" s="108"/>
+      <c r="BQ26" s="108"/>
+      <c r="BR26" s="108"/>
+      <c r="BS26" s="108"/>
+      <c r="BT26" s="127"/>
+      <c r="BU26" s="127"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="127"/>
+      <c r="BX26" s="127"/>
+      <c r="BY26" s="127"/>
+      <c r="BZ26" s="111"/>
+      <c r="CA26" s="111"/>
+      <c r="CB26" s="111"/>
+      <c r="CC26" s="124"/>
+      <c r="CD26" s="124"/>
       <c r="CE26" s="137"/>
-      <c r="CF26" s="108"/>
-      <c r="CG26" s="108"/>
-      <c r="CH26" s="108"/>
-      <c r="CI26" s="108"/>
-      <c r="CJ26" s="108"/>
-      <c r="CK26" s="108"/>
-      <c r="CL26" s="108"/>
-      <c r="CM26" s="108"/>
-      <c r="CN26" s="119"/>
-      <c r="CO26" s="120"/>
-      <c r="CP26" s="120"/>
-      <c r="CQ26" s="161"/>
+      <c r="CF26" s="124"/>
+      <c r="CG26" s="124"/>
+      <c r="CH26" s="124"/>
+      <c r="CI26" s="124"/>
+      <c r="CJ26" s="124"/>
+      <c r="CK26" s="124"/>
+      <c r="CL26" s="124"/>
+      <c r="CM26" s="124"/>
+      <c r="CN26" s="135"/>
+      <c r="CO26" s="116"/>
+      <c r="CP26" s="116"/>
+      <c r="CQ26" s="130"/>
     </row>
     <row r="27" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="143"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="157"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="87">
         <v>2</v>
       </c>
@@ -5731,71 +5730,71 @@
       <c r="AJ27" s="69"/>
       <c r="AK27" s="69"/>
       <c r="AL27" s="69"/>
-      <c r="AM27" s="140"/>
-      <c r="AN27" s="140"/>
-      <c r="AO27" s="140"/>
-      <c r="AP27" s="140"/>
-      <c r="AQ27" s="140"/>
-      <c r="AR27" s="140"/>
-      <c r="AS27" s="140"/>
-      <c r="AT27" s="114"/>
-      <c r="AU27" s="114"/>
-      <c r="AV27" s="149"/>
-      <c r="AW27" s="149"/>
-      <c r="AX27" s="114"/>
-      <c r="AY27" s="114"/>
-      <c r="AZ27" s="114"/>
-      <c r="BA27" s="114"/>
-      <c r="BB27" s="114"/>
-      <c r="BC27" s="114"/>
-      <c r="BD27" s="114"/>
-      <c r="BE27" s="114"/>
-      <c r="BF27" s="114"/>
-      <c r="BG27" s="114"/>
-      <c r="BH27" s="114"/>
-      <c r="BI27" s="114"/>
-      <c r="BJ27" s="114"/>
-      <c r="BK27" s="114"/>
-      <c r="BL27" s="114"/>
-      <c r="BM27" s="114"/>
-      <c r="BN27" s="117"/>
-      <c r="BO27" s="117"/>
-      <c r="BP27" s="117"/>
-      <c r="BQ27" s="117"/>
-      <c r="BR27" s="117"/>
-      <c r="BS27" s="117"/>
-      <c r="BT27" s="111"/>
-      <c r="BU27" s="111"/>
-      <c r="BV27" s="111"/>
-      <c r="BW27" s="111"/>
-      <c r="BX27" s="111"/>
-      <c r="BY27" s="111"/>
-      <c r="BZ27" s="114"/>
-      <c r="CA27" s="114"/>
-      <c r="CB27" s="114"/>
-      <c r="CC27" s="108"/>
-      <c r="CD27" s="108"/>
+      <c r="AM27" s="114"/>
+      <c r="AN27" s="114"/>
+      <c r="AO27" s="114"/>
+      <c r="AP27" s="114"/>
+      <c r="AQ27" s="114"/>
+      <c r="AR27" s="114"/>
+      <c r="AS27" s="114"/>
+      <c r="AT27" s="111"/>
+      <c r="AU27" s="111"/>
+      <c r="AV27" s="133"/>
+      <c r="AW27" s="133"/>
+      <c r="AX27" s="111"/>
+      <c r="AY27" s="111"/>
+      <c r="AZ27" s="111"/>
+      <c r="BA27" s="111"/>
+      <c r="BB27" s="111"/>
+      <c r="BC27" s="111"/>
+      <c r="BD27" s="111"/>
+      <c r="BE27" s="111"/>
+      <c r="BF27" s="111"/>
+      <c r="BG27" s="111"/>
+      <c r="BH27" s="111"/>
+      <c r="BI27" s="111"/>
+      <c r="BJ27" s="111"/>
+      <c r="BK27" s="111"/>
+      <c r="BL27" s="111"/>
+      <c r="BM27" s="111"/>
+      <c r="BN27" s="108"/>
+      <c r="BO27" s="108"/>
+      <c r="BP27" s="108"/>
+      <c r="BQ27" s="108"/>
+      <c r="BR27" s="108"/>
+      <c r="BS27" s="108"/>
+      <c r="BT27" s="127"/>
+      <c r="BU27" s="127"/>
+      <c r="BV27" s="127"/>
+      <c r="BW27" s="127"/>
+      <c r="BX27" s="127"/>
+      <c r="BY27" s="127"/>
+      <c r="BZ27" s="111"/>
+      <c r="CA27" s="111"/>
+      <c r="CB27" s="111"/>
+      <c r="CC27" s="124"/>
+      <c r="CD27" s="124"/>
       <c r="CE27" s="137"/>
-      <c r="CF27" s="108"/>
-      <c r="CG27" s="108"/>
-      <c r="CH27" s="108"/>
-      <c r="CI27" s="108"/>
-      <c r="CJ27" s="108"/>
-      <c r="CK27" s="108"/>
-      <c r="CL27" s="108"/>
-      <c r="CM27" s="108"/>
-      <c r="CN27" s="119"/>
-      <c r="CO27" s="120"/>
-      <c r="CP27" s="120"/>
-      <c r="CQ27" s="161"/>
+      <c r="CF27" s="124"/>
+      <c r="CG27" s="124"/>
+      <c r="CH27" s="124"/>
+      <c r="CI27" s="124"/>
+      <c r="CJ27" s="124"/>
+      <c r="CK27" s="124"/>
+      <c r="CL27" s="124"/>
+      <c r="CM27" s="124"/>
+      <c r="CN27" s="135"/>
+      <c r="CO27" s="116"/>
+      <c r="CP27" s="116"/>
+      <c r="CQ27" s="130"/>
     </row>
     <row r="28" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="143"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="157"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="87">
         <v>2.1</v>
       </c>
@@ -5830,71 +5829,71 @@
       <c r="AJ28" s="69"/>
       <c r="AK28" s="69"/>
       <c r="AL28" s="69"/>
-      <c r="AM28" s="140"/>
-      <c r="AN28" s="140"/>
-      <c r="AO28" s="140"/>
-      <c r="AP28" s="140"/>
-      <c r="AQ28" s="140"/>
-      <c r="AR28" s="140"/>
-      <c r="AS28" s="140"/>
-      <c r="AT28" s="114"/>
-      <c r="AU28" s="114"/>
-      <c r="AV28" s="149"/>
-      <c r="AW28" s="149"/>
-      <c r="AX28" s="114"/>
-      <c r="AY28" s="114"/>
-      <c r="AZ28" s="114"/>
-      <c r="BA28" s="114"/>
-      <c r="BB28" s="114"/>
-      <c r="BC28" s="114"/>
-      <c r="BD28" s="114"/>
-      <c r="BE28" s="114"/>
-      <c r="BF28" s="114"/>
-      <c r="BG28" s="114"/>
-      <c r="BH28" s="114"/>
-      <c r="BI28" s="114"/>
-      <c r="BJ28" s="114"/>
-      <c r="BK28" s="114"/>
-      <c r="BL28" s="114"/>
-      <c r="BM28" s="114"/>
-      <c r="BN28" s="117"/>
-      <c r="BO28" s="117"/>
-      <c r="BP28" s="117"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="111"/>
-      <c r="BU28" s="111"/>
-      <c r="BV28" s="111"/>
-      <c r="BW28" s="111"/>
-      <c r="BX28" s="111"/>
-      <c r="BY28" s="111"/>
-      <c r="BZ28" s="114"/>
-      <c r="CA28" s="114"/>
-      <c r="CB28" s="114"/>
-      <c r="CC28" s="108"/>
-      <c r="CD28" s="108"/>
+      <c r="AM28" s="114"/>
+      <c r="AN28" s="114"/>
+      <c r="AO28" s="114"/>
+      <c r="AP28" s="114"/>
+      <c r="AQ28" s="114"/>
+      <c r="AR28" s="114"/>
+      <c r="AS28" s="114"/>
+      <c r="AT28" s="111"/>
+      <c r="AU28" s="111"/>
+      <c r="AV28" s="133"/>
+      <c r="AW28" s="133"/>
+      <c r="AX28" s="111"/>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="111"/>
+      <c r="BD28" s="111"/>
+      <c r="BE28" s="111"/>
+      <c r="BF28" s="111"/>
+      <c r="BG28" s="111"/>
+      <c r="BH28" s="111"/>
+      <c r="BI28" s="111"/>
+      <c r="BJ28" s="111"/>
+      <c r="BK28" s="111"/>
+      <c r="BL28" s="111"/>
+      <c r="BM28" s="111"/>
+      <c r="BN28" s="108"/>
+      <c r="BO28" s="108"/>
+      <c r="BP28" s="108"/>
+      <c r="BQ28" s="108"/>
+      <c r="BR28" s="108"/>
+      <c r="BS28" s="108"/>
+      <c r="BT28" s="127"/>
+      <c r="BU28" s="127"/>
+      <c r="BV28" s="127"/>
+      <c r="BW28" s="127"/>
+      <c r="BX28" s="127"/>
+      <c r="BY28" s="127"/>
+      <c r="BZ28" s="111"/>
+      <c r="CA28" s="111"/>
+      <c r="CB28" s="111"/>
+      <c r="CC28" s="124"/>
+      <c r="CD28" s="124"/>
       <c r="CE28" s="137"/>
-      <c r="CF28" s="108"/>
-      <c r="CG28" s="108"/>
-      <c r="CH28" s="108"/>
-      <c r="CI28" s="108"/>
-      <c r="CJ28" s="108"/>
-      <c r="CK28" s="108"/>
-      <c r="CL28" s="108"/>
-      <c r="CM28" s="108"/>
-      <c r="CN28" s="119"/>
-      <c r="CO28" s="120"/>
-      <c r="CP28" s="120"/>
-      <c r="CQ28" s="161"/>
+      <c r="CF28" s="124"/>
+      <c r="CG28" s="124"/>
+      <c r="CH28" s="124"/>
+      <c r="CI28" s="124"/>
+      <c r="CJ28" s="124"/>
+      <c r="CK28" s="124"/>
+      <c r="CL28" s="124"/>
+      <c r="CM28" s="124"/>
+      <c r="CN28" s="135"/>
+      <c r="CO28" s="116"/>
+      <c r="CP28" s="116"/>
+      <c r="CQ28" s="130"/>
     </row>
     <row r="29" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="143"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="157"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="87">
         <v>2.7</v>
       </c>
@@ -5929,71 +5928,71 @@
       <c r="AJ29" s="69"/>
       <c r="AK29" s="69"/>
       <c r="AL29" s="69"/>
-      <c r="AM29" s="140"/>
-      <c r="AN29" s="140"/>
-      <c r="AO29" s="140"/>
-      <c r="AP29" s="140"/>
-      <c r="AQ29" s="140"/>
-      <c r="AR29" s="140"/>
-      <c r="AS29" s="140"/>
-      <c r="AT29" s="114"/>
-      <c r="AU29" s="114"/>
-      <c r="AV29" s="149"/>
-      <c r="AW29" s="149"/>
-      <c r="AX29" s="114"/>
-      <c r="AY29" s="114"/>
-      <c r="AZ29" s="114"/>
-      <c r="BA29" s="114"/>
-      <c r="BB29" s="114"/>
-      <c r="BC29" s="114"/>
-      <c r="BD29" s="114"/>
-      <c r="BE29" s="114"/>
-      <c r="BF29" s="114"/>
-      <c r="BG29" s="114"/>
-      <c r="BH29" s="114"/>
-      <c r="BI29" s="114"/>
-      <c r="BJ29" s="114"/>
-      <c r="BK29" s="114"/>
-      <c r="BL29" s="114"/>
-      <c r="BM29" s="114"/>
-      <c r="BN29" s="117"/>
-      <c r="BO29" s="117"/>
-      <c r="BP29" s="117"/>
-      <c r="BQ29" s="117"/>
-      <c r="BR29" s="117"/>
-      <c r="BS29" s="117"/>
-      <c r="BT29" s="111"/>
-      <c r="BU29" s="111"/>
-      <c r="BV29" s="111"/>
-      <c r="BW29" s="111"/>
-      <c r="BX29" s="111"/>
-      <c r="BY29" s="111"/>
-      <c r="BZ29" s="114"/>
-      <c r="CA29" s="114"/>
-      <c r="CB29" s="114"/>
-      <c r="CC29" s="108"/>
-      <c r="CD29" s="108"/>
+      <c r="AM29" s="114"/>
+      <c r="AN29" s="114"/>
+      <c r="AO29" s="114"/>
+      <c r="AP29" s="114"/>
+      <c r="AQ29" s="114"/>
+      <c r="AR29" s="114"/>
+      <c r="AS29" s="114"/>
+      <c r="AT29" s="111"/>
+      <c r="AU29" s="111"/>
+      <c r="AV29" s="133"/>
+      <c r="AW29" s="133"/>
+      <c r="AX29" s="111"/>
+      <c r="AY29" s="111"/>
+      <c r="AZ29" s="111"/>
+      <c r="BA29" s="111"/>
+      <c r="BB29" s="111"/>
+      <c r="BC29" s="111"/>
+      <c r="BD29" s="111"/>
+      <c r="BE29" s="111"/>
+      <c r="BF29" s="111"/>
+      <c r="BG29" s="111"/>
+      <c r="BH29" s="111"/>
+      <c r="BI29" s="111"/>
+      <c r="BJ29" s="111"/>
+      <c r="BK29" s="111"/>
+      <c r="BL29" s="111"/>
+      <c r="BM29" s="111"/>
+      <c r="BN29" s="108"/>
+      <c r="BO29" s="108"/>
+      <c r="BP29" s="108"/>
+      <c r="BQ29" s="108"/>
+      <c r="BR29" s="108"/>
+      <c r="BS29" s="108"/>
+      <c r="BT29" s="127"/>
+      <c r="BU29" s="127"/>
+      <c r="BV29" s="127"/>
+      <c r="BW29" s="127"/>
+      <c r="BX29" s="127"/>
+      <c r="BY29" s="127"/>
+      <c r="BZ29" s="111"/>
+      <c r="CA29" s="111"/>
+      <c r="CB29" s="111"/>
+      <c r="CC29" s="124"/>
+      <c r="CD29" s="124"/>
       <c r="CE29" s="137"/>
-      <c r="CF29" s="108"/>
-      <c r="CG29" s="108"/>
-      <c r="CH29" s="108"/>
-      <c r="CI29" s="108"/>
-      <c r="CJ29" s="108"/>
-      <c r="CK29" s="108"/>
-      <c r="CL29" s="108"/>
-      <c r="CM29" s="108"/>
-      <c r="CN29" s="119"/>
-      <c r="CO29" s="120"/>
-      <c r="CP29" s="120"/>
-      <c r="CQ29" s="161"/>
+      <c r="CF29" s="124"/>
+      <c r="CG29" s="124"/>
+      <c r="CH29" s="124"/>
+      <c r="CI29" s="124"/>
+      <c r="CJ29" s="124"/>
+      <c r="CK29" s="124"/>
+      <c r="CL29" s="124"/>
+      <c r="CM29" s="124"/>
+      <c r="CN29" s="135"/>
+      <c r="CO29" s="116"/>
+      <c r="CP29" s="116"/>
+      <c r="CQ29" s="130"/>
     </row>
     <row r="30" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="143"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="157"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="87">
         <v>3</v>
       </c>
@@ -6028,71 +6027,71 @@
       <c r="AJ30" s="69"/>
       <c r="AK30" s="69"/>
       <c r="AL30" s="69"/>
-      <c r="AM30" s="140"/>
-      <c r="AN30" s="140"/>
-      <c r="AO30" s="140"/>
-      <c r="AP30" s="140"/>
-      <c r="AQ30" s="140"/>
-      <c r="AR30" s="140"/>
-      <c r="AS30" s="140"/>
-      <c r="AT30" s="114"/>
-      <c r="AU30" s="114"/>
-      <c r="AV30" s="149"/>
-      <c r="AW30" s="149"/>
-      <c r="AX30" s="114"/>
-      <c r="AY30" s="114"/>
-      <c r="AZ30" s="114"/>
-      <c r="BA30" s="114"/>
-      <c r="BB30" s="114"/>
-      <c r="BC30" s="114"/>
-      <c r="BD30" s="114"/>
-      <c r="BE30" s="114"/>
-      <c r="BF30" s="114"/>
-      <c r="BG30" s="114"/>
-      <c r="BH30" s="114"/>
-      <c r="BI30" s="114"/>
-      <c r="BJ30" s="114"/>
-      <c r="BK30" s="114"/>
-      <c r="BL30" s="114"/>
-      <c r="BM30" s="114"/>
-      <c r="BN30" s="117"/>
-      <c r="BO30" s="117"/>
-      <c r="BP30" s="117"/>
-      <c r="BQ30" s="117"/>
-      <c r="BR30" s="117"/>
-      <c r="BS30" s="117"/>
-      <c r="BT30" s="111"/>
-      <c r="BU30" s="111"/>
-      <c r="BV30" s="111"/>
-      <c r="BW30" s="111"/>
-      <c r="BX30" s="111"/>
-      <c r="BY30" s="111"/>
-      <c r="BZ30" s="114"/>
-      <c r="CA30" s="114"/>
-      <c r="CB30" s="114"/>
-      <c r="CC30" s="108"/>
-      <c r="CD30" s="108"/>
+      <c r="AM30" s="114"/>
+      <c r="AN30" s="114"/>
+      <c r="AO30" s="114"/>
+      <c r="AP30" s="114"/>
+      <c r="AQ30" s="114"/>
+      <c r="AR30" s="114"/>
+      <c r="AS30" s="114"/>
+      <c r="AT30" s="111"/>
+      <c r="AU30" s="111"/>
+      <c r="AV30" s="133"/>
+      <c r="AW30" s="133"/>
+      <c r="AX30" s="111"/>
+      <c r="AY30" s="111"/>
+      <c r="AZ30" s="111"/>
+      <c r="BA30" s="111"/>
+      <c r="BB30" s="111"/>
+      <c r="BC30" s="111"/>
+      <c r="BD30" s="111"/>
+      <c r="BE30" s="111"/>
+      <c r="BF30" s="111"/>
+      <c r="BG30" s="111"/>
+      <c r="BH30" s="111"/>
+      <c r="BI30" s="111"/>
+      <c r="BJ30" s="111"/>
+      <c r="BK30" s="111"/>
+      <c r="BL30" s="111"/>
+      <c r="BM30" s="111"/>
+      <c r="BN30" s="108"/>
+      <c r="BO30" s="108"/>
+      <c r="BP30" s="108"/>
+      <c r="BQ30" s="108"/>
+      <c r="BR30" s="108"/>
+      <c r="BS30" s="108"/>
+      <c r="BT30" s="127"/>
+      <c r="BU30" s="127"/>
+      <c r="BV30" s="127"/>
+      <c r="BW30" s="127"/>
+      <c r="BX30" s="127"/>
+      <c r="BY30" s="127"/>
+      <c r="BZ30" s="111"/>
+      <c r="CA30" s="111"/>
+      <c r="CB30" s="111"/>
+      <c r="CC30" s="124"/>
+      <c r="CD30" s="124"/>
       <c r="CE30" s="137"/>
-      <c r="CF30" s="108"/>
-      <c r="CG30" s="108"/>
-      <c r="CH30" s="108"/>
-      <c r="CI30" s="108"/>
-      <c r="CJ30" s="108"/>
-      <c r="CK30" s="108"/>
-      <c r="CL30" s="108"/>
-      <c r="CM30" s="108"/>
-      <c r="CN30" s="119"/>
-      <c r="CO30" s="120"/>
-      <c r="CP30" s="120"/>
-      <c r="CQ30" s="161"/>
+      <c r="CF30" s="124"/>
+      <c r="CG30" s="124"/>
+      <c r="CH30" s="124"/>
+      <c r="CI30" s="124"/>
+      <c r="CJ30" s="124"/>
+      <c r="CK30" s="124"/>
+      <c r="CL30" s="124"/>
+      <c r="CM30" s="124"/>
+      <c r="CN30" s="135"/>
+      <c r="CO30" s="116"/>
+      <c r="CP30" s="116"/>
+      <c r="CQ30" s="130"/>
     </row>
     <row r="31" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="143"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="157"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="88">
         <v>3.9</v>
       </c>
@@ -6127,74 +6126,74 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="70"/>
       <c r="AL31" s="70"/>
-      <c r="AM31" s="140"/>
-      <c r="AN31" s="140"/>
-      <c r="AO31" s="140"/>
-      <c r="AP31" s="140"/>
-      <c r="AQ31" s="140"/>
-      <c r="AR31" s="140"/>
-      <c r="AS31" s="140"/>
-      <c r="AT31" s="114"/>
-      <c r="AU31" s="114"/>
-      <c r="AV31" s="149"/>
-      <c r="AW31" s="149"/>
-      <c r="AX31" s="114"/>
-      <c r="AY31" s="114"/>
-      <c r="AZ31" s="114"/>
-      <c r="BA31" s="114"/>
-      <c r="BB31" s="114"/>
-      <c r="BC31" s="114"/>
-      <c r="BD31" s="114"/>
-      <c r="BE31" s="114"/>
-      <c r="BF31" s="114"/>
-      <c r="BG31" s="114"/>
-      <c r="BH31" s="114"/>
-      <c r="BI31" s="114"/>
-      <c r="BJ31" s="114"/>
-      <c r="BK31" s="114"/>
-      <c r="BL31" s="114"/>
-      <c r="BM31" s="114"/>
-      <c r="BN31" s="117"/>
-      <c r="BO31" s="117"/>
-      <c r="BP31" s="117"/>
-      <c r="BQ31" s="117"/>
-      <c r="BR31" s="117"/>
-      <c r="BS31" s="117"/>
-      <c r="BT31" s="111"/>
-      <c r="BU31" s="111"/>
-      <c r="BV31" s="111"/>
-      <c r="BW31" s="111"/>
-      <c r="BX31" s="111"/>
-      <c r="BY31" s="111"/>
-      <c r="BZ31" s="114"/>
-      <c r="CA31" s="114"/>
-      <c r="CB31" s="114"/>
-      <c r="CC31" s="108"/>
-      <c r="CD31" s="108"/>
+      <c r="AM31" s="114"/>
+      <c r="AN31" s="114"/>
+      <c r="AO31" s="114"/>
+      <c r="AP31" s="114"/>
+      <c r="AQ31" s="114"/>
+      <c r="AR31" s="114"/>
+      <c r="AS31" s="114"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="133"/>
+      <c r="AW31" s="133"/>
+      <c r="AX31" s="111"/>
+      <c r="AY31" s="111"/>
+      <c r="AZ31" s="111"/>
+      <c r="BA31" s="111"/>
+      <c r="BB31" s="111"/>
+      <c r="BC31" s="111"/>
+      <c r="BD31" s="111"/>
+      <c r="BE31" s="111"/>
+      <c r="BF31" s="111"/>
+      <c r="BG31" s="111"/>
+      <c r="BH31" s="111"/>
+      <c r="BI31" s="111"/>
+      <c r="BJ31" s="111"/>
+      <c r="BK31" s="111"/>
+      <c r="BL31" s="111"/>
+      <c r="BM31" s="111"/>
+      <c r="BN31" s="108"/>
+      <c r="BO31" s="108"/>
+      <c r="BP31" s="108"/>
+      <c r="BQ31" s="108"/>
+      <c r="BR31" s="108"/>
+      <c r="BS31" s="108"/>
+      <c r="BT31" s="127"/>
+      <c r="BU31" s="127"/>
+      <c r="BV31" s="127"/>
+      <c r="BW31" s="127"/>
+      <c r="BX31" s="127"/>
+      <c r="BY31" s="127"/>
+      <c r="BZ31" s="111"/>
+      <c r="CA31" s="111"/>
+      <c r="CB31" s="111"/>
+      <c r="CC31" s="124"/>
+      <c r="CD31" s="124"/>
       <c r="CE31" s="137"/>
-      <c r="CF31" s="108"/>
-      <c r="CG31" s="108"/>
-      <c r="CH31" s="108"/>
-      <c r="CI31" s="108"/>
-      <c r="CJ31" s="108"/>
-      <c r="CK31" s="108"/>
-      <c r="CL31" s="108"/>
-      <c r="CM31" s="108"/>
-      <c r="CN31" s="119"/>
-      <c r="CO31" s="120"/>
-      <c r="CP31" s="120"/>
-      <c r="CQ31" s="161"/>
+      <c r="CF31" s="124"/>
+      <c r="CG31" s="124"/>
+      <c r="CH31" s="124"/>
+      <c r="CI31" s="124"/>
+      <c r="CJ31" s="124"/>
+      <c r="CK31" s="124"/>
+      <c r="CL31" s="124"/>
+      <c r="CM31" s="124"/>
+      <c r="CN31" s="135"/>
+      <c r="CO31" s="116"/>
+      <c r="CP31" s="116"/>
+      <c r="CQ31" s="130"/>
     </row>
     <row r="32" spans="1:95" s="85" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="144"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="158" t="s">
+      <c r="A32" s="119"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="158"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="71"/>
       <c r="I32" s="71"/>
       <c r="J32" s="71"/>
@@ -6226,72 +6225,72 @@
       <c r="AJ32" s="33"/>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
-      <c r="AM32" s="141"/>
-      <c r="AN32" s="141"/>
-      <c r="AO32" s="141"/>
-      <c r="AP32" s="141"/>
-      <c r="AQ32" s="141"/>
-      <c r="AR32" s="141"/>
-      <c r="AS32" s="141"/>
-      <c r="AT32" s="115"/>
-      <c r="AU32" s="115"/>
-      <c r="AV32" s="150"/>
-      <c r="AW32" s="150"/>
-      <c r="AX32" s="115"/>
-      <c r="AY32" s="159"/>
-      <c r="AZ32" s="115"/>
-      <c r="BA32" s="115"/>
-      <c r="BB32" s="115"/>
-      <c r="BC32" s="115"/>
-      <c r="BD32" s="115"/>
-      <c r="BE32" s="115"/>
-      <c r="BF32" s="115"/>
-      <c r="BG32" s="115"/>
-      <c r="BH32" s="115"/>
-      <c r="BI32" s="115"/>
-      <c r="BJ32" s="115"/>
-      <c r="BK32" s="115"/>
-      <c r="BL32" s="115"/>
-      <c r="BM32" s="115"/>
-      <c r="BN32" s="118"/>
-      <c r="BO32" s="118"/>
-      <c r="BP32" s="118"/>
-      <c r="BQ32" s="118"/>
-      <c r="BR32" s="118"/>
-      <c r="BS32" s="118"/>
-      <c r="BT32" s="112"/>
-      <c r="BU32" s="112"/>
-      <c r="BV32" s="112"/>
-      <c r="BW32" s="112"/>
-      <c r="BX32" s="112"/>
-      <c r="BY32" s="112"/>
-      <c r="BZ32" s="115"/>
-      <c r="CA32" s="115"/>
-      <c r="CB32" s="115"/>
-      <c r="CC32" s="109"/>
-      <c r="CD32" s="109"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
+      <c r="AR32" s="115"/>
+      <c r="AS32" s="115"/>
+      <c r="AT32" s="112"/>
+      <c r="AU32" s="112"/>
+      <c r="AV32" s="134"/>
+      <c r="AW32" s="134"/>
+      <c r="AX32" s="112"/>
+      <c r="AY32" s="112"/>
+      <c r="AZ32" s="112"/>
+      <c r="BA32" s="112"/>
+      <c r="BB32" s="112"/>
+      <c r="BC32" s="112"/>
+      <c r="BD32" s="112"/>
+      <c r="BE32" s="112"/>
+      <c r="BF32" s="112"/>
+      <c r="BG32" s="112"/>
+      <c r="BH32" s="112"/>
+      <c r="BI32" s="112"/>
+      <c r="BJ32" s="112"/>
+      <c r="BK32" s="112"/>
+      <c r="BL32" s="112"/>
+      <c r="BM32" s="112"/>
+      <c r="BN32" s="109"/>
+      <c r="BO32" s="109"/>
+      <c r="BP32" s="109"/>
+      <c r="BQ32" s="109"/>
+      <c r="BR32" s="109"/>
+      <c r="BS32" s="109"/>
+      <c r="BT32" s="128"/>
+      <c r="BU32" s="128"/>
+      <c r="BV32" s="128"/>
+      <c r="BW32" s="128"/>
+      <c r="BX32" s="128"/>
+      <c r="BY32" s="128"/>
+      <c r="BZ32" s="112"/>
+      <c r="CA32" s="112"/>
+      <c r="CB32" s="112"/>
+      <c r="CC32" s="125"/>
+      <c r="CD32" s="125"/>
       <c r="CE32" s="138"/>
-      <c r="CF32" s="109"/>
-      <c r="CG32" s="109"/>
-      <c r="CH32" s="109"/>
-      <c r="CI32" s="109"/>
-      <c r="CJ32" s="109"/>
-      <c r="CK32" s="109"/>
-      <c r="CL32" s="109"/>
-      <c r="CM32" s="109"/>
-      <c r="CN32" s="119"/>
-      <c r="CO32" s="120"/>
-      <c r="CP32" s="120"/>
-      <c r="CQ32" s="162"/>
+      <c r="CF32" s="125"/>
+      <c r="CG32" s="125"/>
+      <c r="CH32" s="125"/>
+      <c r="CI32" s="125"/>
+      <c r="CJ32" s="125"/>
+      <c r="CK32" s="125"/>
+      <c r="CL32" s="125"/>
+      <c r="CM32" s="125"/>
+      <c r="CN32" s="135"/>
+      <c r="CO32" s="116"/>
+      <c r="CP32" s="116"/>
+      <c r="CQ32" s="131"/>
     </row>
     <row r="33" spans="1:95" s="89" customFormat="1" ht="15" thickBot="1">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="155"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="141"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90"/>
       <c r="H33" s="95"/>
@@ -6330,219 +6329,219 @@
         <v>0</v>
       </c>
       <c r="AN33" s="60">
-        <f t="shared" ref="AN33:CO33" si="7">SUM(AN17:AN25)</f>
+        <f t="shared" ref="AN33:CO33" si="6">SUM(AN17:AN25)</f>
         <v>0</v>
       </c>
       <c r="AO33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BO33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BP33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BQ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BR33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BS33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BT33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BU33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BV33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BW33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BX33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BZ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CA33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CB33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CC33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CD33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CE33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CF33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CG33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CH33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CI33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CJ33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CK33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CL33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CM33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CN33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CO33" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CP33" s="60"/>
@@ -11544,6 +11543,121 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A16:CO34"/>
   <mergeCells count="139">
+    <mergeCell ref="CH25:CH32"/>
+    <mergeCell ref="BY25:BY32"/>
+    <mergeCell ref="BZ25:BZ32"/>
+    <mergeCell ref="CA25:CA32"/>
+    <mergeCell ref="CB25:CB32"/>
+    <mergeCell ref="CC25:CC32"/>
+    <mergeCell ref="CF25:CF32"/>
+    <mergeCell ref="CG25:CG32"/>
+    <mergeCell ref="BQ17:BQ24"/>
+    <mergeCell ref="BR17:BR24"/>
+    <mergeCell ref="BS17:BS24"/>
+    <mergeCell ref="BT17:BT24"/>
+    <mergeCell ref="BV17:BV24"/>
+    <mergeCell ref="BQ25:BQ32"/>
+    <mergeCell ref="BV25:BV32"/>
+    <mergeCell ref="BW25:BW32"/>
+    <mergeCell ref="BX25:BX32"/>
+    <mergeCell ref="BX17:BX24"/>
+    <mergeCell ref="BY17:BY24"/>
+    <mergeCell ref="CN25:CN32"/>
+    <mergeCell ref="CO25:CO32"/>
+    <mergeCell ref="CI25:CI32"/>
+    <mergeCell ref="CJ25:CJ32"/>
+    <mergeCell ref="CK25:CK32"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:W13"/>
+    <mergeCell ref="X13:AH13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="BT15:BY15"/>
+    <mergeCell ref="CC15:CN15"/>
+    <mergeCell ref="BL25:BL32"/>
+    <mergeCell ref="BN15:BS15"/>
+    <mergeCell ref="BR25:BR32"/>
+    <mergeCell ref="BS25:BS32"/>
+    <mergeCell ref="BT25:BT32"/>
+    <mergeCell ref="BU25:BU32"/>
+    <mergeCell ref="BM25:BM32"/>
+    <mergeCell ref="BN25:BN32"/>
+    <mergeCell ref="BO25:BO32"/>
+    <mergeCell ref="BP25:BP32"/>
+    <mergeCell ref="CL25:CL32"/>
+    <mergeCell ref="CM25:CM32"/>
+    <mergeCell ref="CD25:CD32"/>
+    <mergeCell ref="CE25:CE32"/>
+    <mergeCell ref="AQ17:AQ24"/>
+    <mergeCell ref="AR17:AR24"/>
+    <mergeCell ref="AS17:AS24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="BI25:BI32"/>
+    <mergeCell ref="AQ25:AQ32"/>
+    <mergeCell ref="AR25:AR32"/>
+    <mergeCell ref="AS25:AS32"/>
+    <mergeCell ref="AT25:AT32"/>
+    <mergeCell ref="AU25:AU32"/>
+    <mergeCell ref="AV25:AV32"/>
+    <mergeCell ref="AW25:AW32"/>
+    <mergeCell ref="AX25:AX32"/>
+    <mergeCell ref="BA25:BA32"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C17:C24"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="E17:E24"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="BO17:BO24"/>
+    <mergeCell ref="AM17:AM24"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="E25:E32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="AM25:AM32"/>
+    <mergeCell ref="AN25:AN32"/>
+    <mergeCell ref="AO25:AO32"/>
+    <mergeCell ref="AP25:AP32"/>
+    <mergeCell ref="BB25:BB32"/>
+    <mergeCell ref="BC25:BC32"/>
+    <mergeCell ref="BD25:BD32"/>
+    <mergeCell ref="BE25:BE32"/>
+    <mergeCell ref="BJ25:BJ32"/>
+    <mergeCell ref="BK25:BK32"/>
+    <mergeCell ref="BF25:BF32"/>
+    <mergeCell ref="BG25:BG32"/>
+    <mergeCell ref="BH25:BH32"/>
+    <mergeCell ref="AY17:AY24"/>
+    <mergeCell ref="AY25:AY32"/>
+    <mergeCell ref="AZ17:AZ24"/>
+    <mergeCell ref="AZ25:AZ32"/>
+    <mergeCell ref="CQ17:CQ24"/>
+    <mergeCell ref="CQ25:CQ32"/>
+    <mergeCell ref="BA17:BA24"/>
+    <mergeCell ref="BB17:BB24"/>
+    <mergeCell ref="BC17:BC24"/>
+    <mergeCell ref="BD17:BD24"/>
+    <mergeCell ref="BE17:BE24"/>
+    <mergeCell ref="AT17:AT24"/>
+    <mergeCell ref="AU17:AU24"/>
+    <mergeCell ref="AV17:AV24"/>
+    <mergeCell ref="AW17:AW24"/>
+    <mergeCell ref="AX17:AX24"/>
+    <mergeCell ref="BG17:BG24"/>
+    <mergeCell ref="BH17:BH24"/>
+    <mergeCell ref="BI17:BI24"/>
+    <mergeCell ref="BJ17:BJ24"/>
+    <mergeCell ref="BW17:BW24"/>
+    <mergeCell ref="CJ17:CJ24"/>
+    <mergeCell ref="CK17:CK24"/>
+    <mergeCell ref="CL17:CL24"/>
+    <mergeCell ref="CM17:CM24"/>
+    <mergeCell ref="CN17:CN24"/>
+    <mergeCell ref="CE17:CE24"/>
+    <mergeCell ref="CF17:CF24"/>
     <mergeCell ref="BP17:BP24"/>
     <mergeCell ref="BK17:BK24"/>
     <mergeCell ref="AN17:AN24"/>
@@ -11568,121 +11682,6 @@
     <mergeCell ref="BL17:BL24"/>
     <mergeCell ref="BM17:BM24"/>
     <mergeCell ref="BN17:BN24"/>
-    <mergeCell ref="CQ17:CQ24"/>
-    <mergeCell ref="CQ25:CQ32"/>
-    <mergeCell ref="BA17:BA24"/>
-    <mergeCell ref="BB17:BB24"/>
-    <mergeCell ref="BC17:BC24"/>
-    <mergeCell ref="BD17:BD24"/>
-    <mergeCell ref="BE17:BE24"/>
-    <mergeCell ref="AT17:AT24"/>
-    <mergeCell ref="AU17:AU24"/>
-    <mergeCell ref="AV17:AV24"/>
-    <mergeCell ref="AW17:AW24"/>
-    <mergeCell ref="AX17:AX24"/>
-    <mergeCell ref="BG17:BG24"/>
-    <mergeCell ref="BH17:BH24"/>
-    <mergeCell ref="BI17:BI24"/>
-    <mergeCell ref="BJ17:BJ24"/>
-    <mergeCell ref="BW17:BW24"/>
-    <mergeCell ref="CJ17:CJ24"/>
-    <mergeCell ref="CK17:CK24"/>
-    <mergeCell ref="CL17:CL24"/>
-    <mergeCell ref="CM17:CM24"/>
-    <mergeCell ref="CN17:CN24"/>
-    <mergeCell ref="CE17:CE24"/>
-    <mergeCell ref="CF17:CF24"/>
-    <mergeCell ref="BO17:BO24"/>
-    <mergeCell ref="AM17:AM24"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="E25:E32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="AM25:AM32"/>
-    <mergeCell ref="AN25:AN32"/>
-    <mergeCell ref="AO25:AO32"/>
-    <mergeCell ref="AP25:AP32"/>
-    <mergeCell ref="BB25:BB32"/>
-    <mergeCell ref="BC25:BC32"/>
-    <mergeCell ref="BD25:BD32"/>
-    <mergeCell ref="BE25:BE32"/>
-    <mergeCell ref="BJ25:BJ32"/>
-    <mergeCell ref="BK25:BK32"/>
-    <mergeCell ref="BF25:BF32"/>
-    <mergeCell ref="BG25:BG32"/>
-    <mergeCell ref="BH25:BH32"/>
-    <mergeCell ref="AY17:AY24"/>
-    <mergeCell ref="AY25:AY32"/>
-    <mergeCell ref="AZ17:AZ24"/>
-    <mergeCell ref="AZ25:AZ32"/>
-    <mergeCell ref="CL25:CL32"/>
-    <mergeCell ref="CM25:CM32"/>
-    <mergeCell ref="CD25:CD32"/>
-    <mergeCell ref="CE25:CE32"/>
-    <mergeCell ref="AQ17:AQ24"/>
-    <mergeCell ref="AR17:AR24"/>
-    <mergeCell ref="AS17:AS24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="BI25:BI32"/>
-    <mergeCell ref="AQ25:AQ32"/>
-    <mergeCell ref="AR25:AR32"/>
-    <mergeCell ref="AS25:AS32"/>
-    <mergeCell ref="AT25:AT32"/>
-    <mergeCell ref="AU25:AU32"/>
-    <mergeCell ref="AV25:AV32"/>
-    <mergeCell ref="AW25:AW32"/>
-    <mergeCell ref="AX25:AX32"/>
-    <mergeCell ref="BA25:BA32"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="E17:E24"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="CN25:CN32"/>
-    <mergeCell ref="CO25:CO32"/>
-    <mergeCell ref="CI25:CI32"/>
-    <mergeCell ref="CJ25:CJ32"/>
-    <mergeCell ref="CK25:CK32"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:W13"/>
-    <mergeCell ref="X13:AH13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="BT15:BY15"/>
-    <mergeCell ref="CC15:CN15"/>
-    <mergeCell ref="BL25:BL32"/>
-    <mergeCell ref="BN15:BS15"/>
-    <mergeCell ref="BR25:BR32"/>
-    <mergeCell ref="BS25:BS32"/>
-    <mergeCell ref="BT25:BT32"/>
-    <mergeCell ref="BU25:BU32"/>
-    <mergeCell ref="BM25:BM32"/>
-    <mergeCell ref="BN25:BN32"/>
-    <mergeCell ref="BO25:BO32"/>
-    <mergeCell ref="BP25:BP32"/>
-    <mergeCell ref="CH25:CH32"/>
-    <mergeCell ref="BY25:BY32"/>
-    <mergeCell ref="BZ25:BZ32"/>
-    <mergeCell ref="CA25:CA32"/>
-    <mergeCell ref="CB25:CB32"/>
-    <mergeCell ref="CC25:CC32"/>
-    <mergeCell ref="CF25:CF32"/>
-    <mergeCell ref="CG25:CG32"/>
-    <mergeCell ref="BQ17:BQ24"/>
-    <mergeCell ref="BR17:BR24"/>
-    <mergeCell ref="BS17:BS24"/>
-    <mergeCell ref="BT17:BT24"/>
-    <mergeCell ref="BV17:BV24"/>
-    <mergeCell ref="BQ25:BQ32"/>
-    <mergeCell ref="BV25:BV32"/>
-    <mergeCell ref="BW25:BW32"/>
-    <mergeCell ref="BX25:BX32"/>
-    <mergeCell ref="BX17:BX24"/>
-    <mergeCell ref="BY17:BY24"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="H16:L16 N16:AL16">
@@ -11855,15 +11854,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I2"/>
+  <dimension ref="B2:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:11">
       <c r="B2" s="104" t="s">
         <v>112</v>
       </c>
@@ -11875,7 +11874,25 @@
       <c r="H2" s="105"/>
       <c r="I2" s="105"/>
     </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="162" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="D4" s="163" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>